--- a/Code/Results/Cases/Case_1_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_54/res_line/pl_mw.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1859479940139437</v>
+        <v>0.1859479940139295</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2381606542376744</v>
+        <v>0.2381606542378307</v>
       </c>
       <c r="E2">
-        <v>0.02721972002228323</v>
+        <v>0.02721972002235518</v>
       </c>
       <c r="F2">
-        <v>5.925457730865247</v>
+        <v>5.925457730865276</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.2144575613988025</v>
+        <v>0.2144575613987989</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.285979559736518</v>
+        <v>5.285979559736546</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>3.291505740867791</v>
+        <v>3.291505740867805</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1632820929542902</v>
+        <v>0.1632820929541765</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1999359160572993</v>
+        <v>0.1999359160573135</v>
       </c>
       <c r="E3">
-        <v>0.0264015108409934</v>
+        <v>0.02640151084098896</v>
       </c>
       <c r="F3">
-        <v>5.010187867148289</v>
+        <v>5.010187867148261</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.2324500470020396</v>
+        <v>0.2324500470020361</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.483142503852463</v>
+        <v>4.483142503852491</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.787710545025178</v>
+        <v>2.787710545025149</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1492240030287633</v>
+        <v>0.1492240030287491</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1784056127247453</v>
+        <v>0.1784056127251006</v>
       </c>
       <c r="E4">
-        <v>0.02594416407625744</v>
+        <v>0.02594416407625655</v>
       </c>
       <c r="F4">
-        <v>4.48442747356529</v>
+        <v>4.484427473565319</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.2447365260661538</v>
+        <v>0.2447365260661361</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.011003079252163</v>
+        <v>4.011003079252191</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.492053247777918</v>
+        <v>2.492053247777946</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1434630928462326</v>
+        <v>0.1434630928461047</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.170025514760539</v>
+        <v>0.1700255147609795</v>
       </c>
       <c r="E5">
-        <v>0.0257666132785328</v>
+        <v>0.02576661327853369</v>
       </c>
       <c r="F5">
         <v>4.277538241729275</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>3.822733669804705</v>
+        <v>3.822733669804762</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1425046435629298</v>
+        <v>0.1425046435628019</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1686554088556989</v>
+        <v>0.1686554088557131</v>
       </c>
       <c r="E6">
-        <v>0.02573760457864882</v>
+        <v>0.02573760457861329</v>
       </c>
       <c r="F6">
         <v>4.24358490139204</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.2509178350647989</v>
+        <v>0.250917835064806</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.354898070316239</v>
+        <v>2.354898070316224</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1491464355013932</v>
+        <v>0.1491464355014358</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.178291111492527</v>
+        <v>0.1782911114926833</v>
       </c>
       <c r="E7">
-        <v>0.02594173661167787</v>
+        <v>0.02594173661168941</v>
       </c>
       <c r="F7">
         <v>4.481609524216537</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.2448067332048307</v>
+        <v>0.2448067332048325</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.00844857076936</v>
+        <v>4.008448570769445</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.490454991207258</v>
+        <v>2.490454991207244</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1781643489559741</v>
+        <v>0.1781643489558604</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -649,7 +649,7 @@
         <v>0.2245143770822295</v>
       </c>
       <c r="E8">
-        <v>0.02692647866517994</v>
+        <v>0.02692647866524034</v>
       </c>
       <c r="F8">
         <v>5.601176726507362</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.2203834181641824</v>
+        <v>0.2203834181641788</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.004099037488771</v>
+        <v>5.004099037488828</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -684,10 +684,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3363719094404729</v>
+        <v>0.336371909440274</v>
       </c>
       <c r="E9">
-        <v>0.02939070473999728</v>
+        <v>0.02939070473999994</v>
       </c>
       <c r="F9">
         <v>8.190984003653085</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.189281710276532</v>
+        <v>7.189281710276617</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2733213047453233</v>
+        <v>0.2733213047452239</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4439789560363749</v>
+        <v>0.4439789560361902</v>
       </c>
       <c r="E10">
-        <v>0.0319660809306832</v>
+        <v>0.03196608093073916</v>
       </c>
       <c r="F10">
-        <v>10.56068809580862</v>
+        <v>10.56068809580856</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.080233514019199</v>
+        <v>9.080233514019142</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.684112908320856</v>
+        <v>5.68411290832087</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2908577767726541</v>
+        <v>0.2908577767724552</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5037299836872222</v>
+        <v>0.5037299836868101</v>
       </c>
       <c r="E11">
-        <v>0.03352461050665756</v>
+        <v>0.03352461050670286</v>
       </c>
       <c r="F11">
-        <v>11.8342588016063</v>
+        <v>11.83425880160624</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.1651811326478239</v>
+        <v>0.1651811326478132</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2973988991208927</v>
+        <v>0.2973988991208785</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5287538418544955</v>
+        <v>0.5287538418542823</v>
       </c>
       <c r="E12">
-        <v>0.03421061557017069</v>
+        <v>0.03421061557017246</v>
       </c>
       <c r="F12">
-        <v>12.35951609568139</v>
+        <v>12.35951609568136</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.46115414148233</v>
+        <v>10.46115414148221</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.557161074672848</v>
+        <v>6.55716107467282</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2959953600297638</v>
+        <v>0.2959953600297922</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5232375730411007</v>
+        <v>0.5232375730410865</v>
       </c>
       <c r="E13">
-        <v>0.03405757689911404</v>
+        <v>0.03405757689914068</v>
       </c>
       <c r="F13">
-        <v>12.24412610240572</v>
+        <v>12.2441261024058</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1647868830988628</v>
+        <v>0.164786883098845</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.37382538689744</v>
+        <v>10.37382538689747</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.50194717742923</v>
+        <v>6.501947177429258</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.291398184510399</v>
+        <v>0.2913981845102427</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5057336293367456</v>
+        <v>0.5057336293367598</v>
       </c>
       <c r="E14">
-        <v>0.03357877243678065</v>
+        <v>0.03357877243675134</v>
       </c>
       <c r="F14">
-        <v>11.87648761811897</v>
+        <v>11.87648761811892</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1651263353621566</v>
+        <v>0.1651263353621744</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.09448507761959</v>
+        <v>10.09448507761962</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.325329534032136</v>
+        <v>6.32532953403215</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2885679651588759</v>
+        <v>0.2885679651589754</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4953593388522535</v>
+        <v>0.4953593388522677</v>
       </c>
       <c r="E15">
-        <v>0.03329973694582211</v>
+        <v>0.03329973694581678</v>
       </c>
       <c r="F15">
-        <v>11.65751127388711</v>
+        <v>11.65751127388722</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.219615274048948</v>
+        <v>6.219615274048991</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.272163549557078</v>
+        <v>0.2721635495572059</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.4403515594835881</v>
+        <v>0.4403515594834175</v>
       </c>
       <c r="E16">
-        <v>0.03187477188351817</v>
+        <v>0.03187477188353505</v>
       </c>
       <c r="F16">
-        <v>10.48245544137129</v>
+        <v>10.4824554413712</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.168764006222105</v>
+        <v>0.1687640062220943</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.645523950533942</v>
+        <v>5.645523950533914</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,7 +982,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2619631129441728</v>
+        <v>0.2619631129442723</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -994,19 +994,19 @@
         <v>0.03111980229752742</v>
       </c>
       <c r="F17">
-        <v>9.819629283141325</v>
+        <v>9.819629283141353</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.171916797695296</v>
+        <v>0.1719167976952782</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.498347724013797</v>
+        <v>8.498347724013826</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.256054733148531</v>
+        <v>0.2560547331484884</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.393206884491903</v>
+        <v>0.3932068844922867</v>
       </c>
       <c r="E18">
-        <v>0.03071857587906557</v>
+        <v>0.03071857587905846</v>
       </c>
       <c r="F18">
-        <v>9.455577224261958</v>
+        <v>9.455577224262044</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1740758946513274</v>
+        <v>0.1740758946513239</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.133893025242386</v>
+        <v>5.133893025242372</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2540478287957342</v>
+        <v>0.2540478287956773</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3877266090930505</v>
+        <v>0.387726609093292</v>
       </c>
       <c r="E19">
-        <v>0.03058761469805837</v>
+        <v>0.03058761469804772</v>
       </c>
       <c r="F19">
-        <v>9.334951674931943</v>
+        <v>9.334951674931858</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.113295618349014</v>
+        <v>8.113295618348928</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.073149016865258</v>
+        <v>5.073149016865244</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2630534166884502</v>
+        <v>0.2630534166885923</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4129681834477736</v>
+        <v>0.412968183447731</v>
       </c>
       <c r="E20">
-        <v>0.0311965551617428</v>
+        <v>0.03119655516173303</v>
       </c>
       <c r="F20">
-        <v>9.888330289169033</v>
+        <v>9.888330289169147</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.1715441483444913</v>
+        <v>0.1715441483444984</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.552634576586627</v>
+        <v>8.552634576586712</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5.350685800255306</v>
+        <v>5.350685800255349</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.292751564733905</v>
+        <v>0.2927515647340329</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5108001049118087</v>
+        <v>0.5108001049117661</v>
       </c>
       <c r="E21">
-        <v>0.03371631319656387</v>
+        <v>0.0337163131965541</v>
       </c>
       <c r="F21">
-        <v>11.98313422938861</v>
+        <v>11.98313422938867</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.17569275720629</v>
+        <v>10.17569275720632</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.376674777153568</v>
+        <v>6.376674777153625</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3115429646600347</v>
+        <v>0.31154296466012</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5896920010016515</v>
+        <v>0.5896920010012252</v>
       </c>
       <c r="E22">
-        <v>0.03597480194739955</v>
+        <v>0.03597480194739333</v>
       </c>
       <c r="F22">
-        <v>13.61972803579062</v>
+        <v>13.61972803579067</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.16558530054483</v>
+        <v>0.1655853005448442</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.40455602781657</v>
+        <v>11.4045560278166</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3015885528586608</v>
+        <v>0.3015885528588029</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.545740405428262</v>
+        <v>0.5457404054286883</v>
       </c>
       <c r="E23">
-        <v>0.03468856603930437</v>
+        <v>0.03468856603931414</v>
       </c>
       <c r="F23">
-        <v>12.71345263763476</v>
+        <v>12.71345263763465</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.1647021069036398</v>
+        <v>0.1647021069036505</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.72800499425733</v>
+        <v>10.72800499425725</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.725871150728892</v>
+        <v>6.725871150728864</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1254,31 +1254,31 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4115422778780271</v>
+        <v>0.4115422778782118</v>
       </c>
       <c r="E24">
-        <v>0.03116175543320399</v>
+        <v>0.03116175543322441</v>
       </c>
       <c r="F24">
-        <v>9.857218515066364</v>
+        <v>9.857218515066421</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.171711558751138</v>
+        <v>0.1717115587511486</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.528059215079935</v>
+        <v>8.528059215079963</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5.335158173794369</v>
+        <v>5.335158173794341</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2188843843017878</v>
+        <v>0.2188843843017594</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3028468976614107</v>
+        <v>0.3028468976612402</v>
       </c>
       <c r="E25">
-        <v>0.02863502622510428</v>
+        <v>0.02863502622513181</v>
       </c>
       <c r="F25">
         <v>7.429995910981887</v>
@@ -1304,13 +1304,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.1924067467456965</v>
+        <v>0.1924067467456858</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.561720188179009</v>
+        <v>6.561720188178981</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_54/res_line/pl_mw.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1859479940139295</v>
+        <v>0.1859479940139437</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2381606542378307</v>
+        <v>0.2381606542376744</v>
       </c>
       <c r="E2">
-        <v>0.02721972002235518</v>
+        <v>0.02721972002228323</v>
       </c>
       <c r="F2">
-        <v>5.925457730865276</v>
+        <v>5.925457730865247</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.2144575613987989</v>
+        <v>0.2144575613988025</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.285979559736546</v>
+        <v>5.285979559736518</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>3.291505740867805</v>
+        <v>3.291505740867791</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1632820929541765</v>
+        <v>0.1632820929542902</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1999359160573135</v>
+        <v>0.1999359160572993</v>
       </c>
       <c r="E3">
-        <v>0.02640151084098896</v>
+        <v>0.0264015108409934</v>
       </c>
       <c r="F3">
-        <v>5.010187867148261</v>
+        <v>5.010187867148289</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.2324500470020361</v>
+        <v>0.2324500470020396</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.483142503852491</v>
+        <v>4.483142503852463</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.787710545025149</v>
+        <v>2.787710545025178</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1492240030287491</v>
+        <v>0.1492240030287633</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1784056127251006</v>
+        <v>0.1784056127247453</v>
       </c>
       <c r="E4">
-        <v>0.02594416407625655</v>
+        <v>0.02594416407625744</v>
       </c>
       <c r="F4">
-        <v>4.484427473565319</v>
+        <v>4.48442747356529</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.2447365260661361</v>
+        <v>0.2447365260661538</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.011003079252191</v>
+        <v>4.011003079252163</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.492053247777946</v>
+        <v>2.492053247777918</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1434630928461047</v>
+        <v>0.1434630928462326</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1700255147609795</v>
+        <v>0.170025514760539</v>
       </c>
       <c r="E5">
-        <v>0.02576661327853369</v>
+        <v>0.0257666132785328</v>
       </c>
       <c r="F5">
         <v>4.277538241729275</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>3.822733669804762</v>
+        <v>3.822733669804705</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1425046435628019</v>
+        <v>0.1425046435629298</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1686554088557131</v>
+        <v>0.1686554088556989</v>
       </c>
       <c r="E6">
-        <v>0.02573760457861329</v>
+        <v>0.02573760457864882</v>
       </c>
       <c r="F6">
         <v>4.24358490139204</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.250917835064806</v>
+        <v>0.2509178350647989</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.354898070316224</v>
+        <v>2.354898070316239</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1491464355014358</v>
+        <v>0.1491464355013932</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1782911114926833</v>
+        <v>0.178291111492527</v>
       </c>
       <c r="E7">
-        <v>0.02594173661168941</v>
+        <v>0.02594173661167787</v>
       </c>
       <c r="F7">
         <v>4.481609524216537</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.2448067332048325</v>
+        <v>0.2448067332048307</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.008448570769445</v>
+        <v>4.00844857076936</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.490454991207244</v>
+        <v>2.490454991207258</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1781643489558604</v>
+        <v>0.1781643489559741</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -649,7 +649,7 @@
         <v>0.2245143770822295</v>
       </c>
       <c r="E8">
-        <v>0.02692647866524034</v>
+        <v>0.02692647866517994</v>
       </c>
       <c r="F8">
         <v>5.601176726507362</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.2203834181641788</v>
+        <v>0.2203834181641824</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.004099037488828</v>
+        <v>5.004099037488771</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -684,10 +684,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.336371909440274</v>
+        <v>0.3363719094404729</v>
       </c>
       <c r="E9">
-        <v>0.02939070473999994</v>
+        <v>0.02939070473999728</v>
       </c>
       <c r="F9">
         <v>8.190984003653085</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.189281710276617</v>
+        <v>7.189281710276532</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2733213047452239</v>
+        <v>0.2733213047453233</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4439789560361902</v>
+        <v>0.4439789560363749</v>
       </c>
       <c r="E10">
-        <v>0.03196608093073916</v>
+        <v>0.0319660809306832</v>
       </c>
       <c r="F10">
-        <v>10.56068809580856</v>
+        <v>10.56068809580862</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.080233514019142</v>
+        <v>9.080233514019199</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.68411290832087</v>
+        <v>5.684112908320856</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2908577767724552</v>
+        <v>0.2908577767726541</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5037299836868101</v>
+        <v>0.5037299836872222</v>
       </c>
       <c r="E11">
-        <v>0.03352461050670286</v>
+        <v>0.03352461050665756</v>
       </c>
       <c r="F11">
-        <v>11.83425880160624</v>
+        <v>11.8342588016063</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.1651811326478132</v>
+        <v>0.1651811326478239</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2973988991208785</v>
+        <v>0.2973988991208927</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5287538418542823</v>
+        <v>0.5287538418544955</v>
       </c>
       <c r="E12">
-        <v>0.03421061557017246</v>
+        <v>0.03421061557017069</v>
       </c>
       <c r="F12">
-        <v>12.35951609568136</v>
+        <v>12.35951609568139</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.46115414148221</v>
+        <v>10.46115414148233</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.55716107467282</v>
+        <v>6.557161074672848</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2959953600297922</v>
+        <v>0.2959953600297638</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5232375730410865</v>
+        <v>0.5232375730411007</v>
       </c>
       <c r="E13">
-        <v>0.03405757689914068</v>
+        <v>0.03405757689911404</v>
       </c>
       <c r="F13">
-        <v>12.2441261024058</v>
+        <v>12.24412610240572</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.164786883098845</v>
+        <v>0.1647868830988628</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.37382538689747</v>
+        <v>10.37382538689744</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.501947177429258</v>
+        <v>6.50194717742923</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2913981845102427</v>
+        <v>0.291398184510399</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5057336293367598</v>
+        <v>0.5057336293367456</v>
       </c>
       <c r="E14">
-        <v>0.03357877243675134</v>
+        <v>0.03357877243678065</v>
       </c>
       <c r="F14">
-        <v>11.87648761811892</v>
+        <v>11.87648761811897</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1651263353621744</v>
+        <v>0.1651263353621566</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.09448507761962</v>
+        <v>10.09448507761959</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.32532953403215</v>
+        <v>6.325329534032136</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2885679651589754</v>
+        <v>0.2885679651588759</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4953593388522677</v>
+        <v>0.4953593388522535</v>
       </c>
       <c r="E15">
-        <v>0.03329973694581678</v>
+        <v>0.03329973694582211</v>
       </c>
       <c r="F15">
-        <v>11.65751127388722</v>
+        <v>11.65751127388711</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.219615274048991</v>
+        <v>6.219615274048948</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2721635495572059</v>
+        <v>0.272163549557078</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.4403515594834175</v>
+        <v>0.4403515594835881</v>
       </c>
       <c r="E16">
-        <v>0.03187477188353505</v>
+        <v>0.03187477188351817</v>
       </c>
       <c r="F16">
-        <v>10.4824554413712</v>
+        <v>10.48245544137129</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1687640062220943</v>
+        <v>0.168764006222105</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.645523950533914</v>
+        <v>5.645523950533942</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,7 +982,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2619631129442723</v>
+        <v>0.2619631129441728</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -994,19 +994,19 @@
         <v>0.03111980229752742</v>
       </c>
       <c r="F17">
-        <v>9.819629283141353</v>
+        <v>9.819629283141325</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1719167976952782</v>
+        <v>0.171916797695296</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.498347724013826</v>
+        <v>8.498347724013797</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2560547331484884</v>
+        <v>0.256054733148531</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3932068844922867</v>
+        <v>0.393206884491903</v>
       </c>
       <c r="E18">
-        <v>0.03071857587905846</v>
+        <v>0.03071857587906557</v>
       </c>
       <c r="F18">
-        <v>9.455577224262044</v>
+        <v>9.455577224261958</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1740758946513239</v>
+        <v>0.1740758946513274</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.133893025242372</v>
+        <v>5.133893025242386</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2540478287956773</v>
+        <v>0.2540478287957342</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.387726609093292</v>
+        <v>0.3877266090930505</v>
       </c>
       <c r="E19">
-        <v>0.03058761469804772</v>
+        <v>0.03058761469805837</v>
       </c>
       <c r="F19">
-        <v>9.334951674931858</v>
+        <v>9.334951674931943</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.113295618348928</v>
+        <v>8.113295618349014</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.073149016865244</v>
+        <v>5.073149016865258</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2630534166885923</v>
+        <v>0.2630534166884502</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.412968183447731</v>
+        <v>0.4129681834477736</v>
       </c>
       <c r="E20">
-        <v>0.03119655516173303</v>
+        <v>0.0311965551617428</v>
       </c>
       <c r="F20">
-        <v>9.888330289169147</v>
+        <v>9.888330289169033</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.1715441483444984</v>
+        <v>0.1715441483444913</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.552634576586712</v>
+        <v>8.552634576586627</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5.350685800255349</v>
+        <v>5.350685800255306</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2927515647340329</v>
+        <v>0.292751564733905</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5108001049117661</v>
+        <v>0.5108001049118087</v>
       </c>
       <c r="E21">
-        <v>0.0337163131965541</v>
+        <v>0.03371631319656387</v>
       </c>
       <c r="F21">
-        <v>11.98313422938867</v>
+        <v>11.98313422938861</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.17569275720632</v>
+        <v>10.17569275720629</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.376674777153625</v>
+        <v>6.376674777153568</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.31154296466012</v>
+        <v>0.3115429646600347</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5896920010012252</v>
+        <v>0.5896920010016515</v>
       </c>
       <c r="E22">
-        <v>0.03597480194739333</v>
+        <v>0.03597480194739955</v>
       </c>
       <c r="F22">
-        <v>13.61972803579067</v>
+        <v>13.61972803579062</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.1655853005448442</v>
+        <v>0.16558530054483</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.4045560278166</v>
+        <v>11.40455602781657</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3015885528588029</v>
+        <v>0.3015885528586608</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5457404054286883</v>
+        <v>0.545740405428262</v>
       </c>
       <c r="E23">
-        <v>0.03468856603931414</v>
+        <v>0.03468856603930437</v>
       </c>
       <c r="F23">
-        <v>12.71345263763465</v>
+        <v>12.71345263763476</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.1647021069036505</v>
+        <v>0.1647021069036398</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.72800499425725</v>
+        <v>10.72800499425733</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.725871150728864</v>
+        <v>6.725871150728892</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1254,31 +1254,31 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4115422778782118</v>
+        <v>0.4115422778780271</v>
       </c>
       <c r="E24">
-        <v>0.03116175543322441</v>
+        <v>0.03116175543320399</v>
       </c>
       <c r="F24">
-        <v>9.857218515066421</v>
+        <v>9.857218515066364</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.1717115587511486</v>
+        <v>0.171711558751138</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.528059215079963</v>
+        <v>8.528059215079935</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5.335158173794341</v>
+        <v>5.335158173794369</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2188843843017594</v>
+        <v>0.2188843843017878</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3028468976612402</v>
+        <v>0.3028468976614107</v>
       </c>
       <c r="E25">
-        <v>0.02863502622513181</v>
+        <v>0.02863502622510428</v>
       </c>
       <c r="F25">
         <v>7.429995910981887</v>
@@ -1304,13 +1304,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.1924067467456858</v>
+        <v>0.1924067467456965</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.561720188178981</v>
+        <v>6.561720188179009</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1859479940139437</v>
+        <v>0.186169969570372</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2381606542376744</v>
+        <v>0.235404119087363</v>
       </c>
       <c r="E2">
-        <v>0.02721972002228323</v>
+        <v>0.02354045103362967</v>
       </c>
       <c r="F2">
-        <v>5.925457730865247</v>
+        <v>5.870659184766396</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0006871868013456073</v>
       </c>
       <c r="H2">
-        <v>0.2144575613988025</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2201407669297737</v>
       </c>
       <c r="J2">
-        <v>5.285979559736518</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>5.214128110865971</v>
       </c>
       <c r="L2">
-        <v>3.291505740867791</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>3.256341731923101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1632820929542902</v>
+        <v>0.1634954219180997</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1999359160572993</v>
+        <v>0.1985565278365726</v>
       </c>
       <c r="E3">
-        <v>0.0264015108409934</v>
+        <v>0.02273034873249014</v>
       </c>
       <c r="F3">
-        <v>5.010187867148289</v>
+        <v>4.974499497608463</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007072675758323337</v>
       </c>
       <c r="H3">
-        <v>0.2324500470020396</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2386159490227335</v>
       </c>
       <c r="J3">
-        <v>4.483142503852463</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>4.422729699972507</v>
       </c>
       <c r="L3">
-        <v>2.787710545025178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2.758966435671795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1492240030287633</v>
+        <v>0.1494345059732041</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1784056127247453</v>
+        <v>0.1778281195542206</v>
       </c>
       <c r="E4">
-        <v>0.02594416407625744</v>
+        <v>0.02227178974610666</v>
       </c>
       <c r="F4">
-        <v>4.48442747356529</v>
+        <v>4.459728837753204</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007195620297273386</v>
       </c>
       <c r="H4">
-        <v>0.2447365260661538</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2511879610618095</v>
       </c>
       <c r="J4">
-        <v>4.011003079252163</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3.957148027412046</v>
       </c>
       <c r="L4">
-        <v>2.492053247777918</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2.466965096753228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1434630928462326</v>
+        <v>0.1436729243036297</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.170025514760539</v>
+        <v>0.1697672521319191</v>
       </c>
       <c r="E5">
-        <v>0.0257666132785328</v>
+        <v>0.022092471395605</v>
       </c>
       <c r="F5">
-        <v>4.277538241729275</v>
+        <v>4.257185523293003</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.000724581862978857</v>
       </c>
       <c r="H5">
-        <v>0.2500237609447069</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2565898228562986</v>
       </c>
       <c r="J5">
-        <v>3.822733669804705</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.771467754914795</v>
       </c>
       <c r="L5">
-        <v>2.37430321853931</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2.350653208378745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1425046435629298</v>
+        <v>0.1427143889743405</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1686554088556989</v>
+        <v>0.1684497810057337</v>
       </c>
       <c r="E6">
-        <v>0.02573760457864882</v>
+        <v>0.0220630990615529</v>
       </c>
       <c r="F6">
-        <v>4.24358490139204</v>
+        <v>4.223947127929762</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007254164634225013</v>
       </c>
       <c r="H6">
-        <v>0.2509178350647989</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2575028504652526</v>
       </c>
       <c r="J6">
-        <v>3.791693350810078</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3.740853146464417</v>
       </c>
       <c r="L6">
-        <v>2.354898070316239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>2.331484223385374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1491464355013932</v>
+        <v>0.1493569276100999</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.178291111492527</v>
+        <v>0.1777179502938679</v>
       </c>
       <c r="E7">
-        <v>0.02594173661167787</v>
+        <v>0.02226934328469454</v>
       </c>
       <c r="F7">
-        <v>4.481609524216537</v>
+        <v>4.456969974433264</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007196296676183112</v>
       </c>
       <c r="H7">
-        <v>0.2448067332048307</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2512597199774671</v>
       </c>
       <c r="J7">
-        <v>4.00844857076936</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3.95462873604879</v>
       </c>
       <c r="L7">
-        <v>2.490454991207258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2.46538642226578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1781643489559741</v>
+        <v>0.1783827279080299</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2245143770822295</v>
+        <v>0.2222441617201838</v>
       </c>
       <c r="E8">
-        <v>0.02692647866517994</v>
+        <v>0.02325148892891349</v>
       </c>
       <c r="F8">
-        <v>5.601176726507362</v>
+        <v>5.553160222091208</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0006941305016652864</v>
       </c>
       <c r="H8">
-        <v>0.2203834181641824</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2262360029725592</v>
       </c>
       <c r="J8">
-        <v>5.004099037488771</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>4.93631217288214</v>
       </c>
       <c r="L8">
-        <v>3.114482320655682</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>3.081605485423751</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.233743120515129</v>
+        <v>0.2340062753043384</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3363719094404729</v>
+        <v>0.3301898359634237</v>
       </c>
       <c r="E9">
-        <v>0.02939070473999728</v>
+        <v>0.02564184107818424</v>
       </c>
       <c r="F9">
-        <v>8.190984003653085</v>
+        <v>8.087429664180974</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0006427133707925202</v>
       </c>
       <c r="H9">
-        <v>0.1841684667144037</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1886903403765388</v>
       </c>
       <c r="J9">
-        <v>7.189281710276532</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>7.08804529382968</v>
       </c>
       <c r="L9">
-        <v>4.489901788508661</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>4.438031349215976</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2733213047453233</v>
+        <v>0.2736587345764008</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4439789560363749</v>
+        <v>0.4339657275088626</v>
       </c>
       <c r="E10">
-        <v>0.0319660809306832</v>
+        <v>0.02807090193145267</v>
       </c>
       <c r="F10">
-        <v>10.56068809580862</v>
+        <v>10.4007536520329</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.000601692931577526</v>
       </c>
       <c r="H10">
-        <v>0.1684553628951164</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.1717406158880266</v>
       </c>
       <c r="J10">
-        <v>9.080233514019199</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>8.944661686950951</v>
       </c>
       <c r="L10">
-        <v>5.684112908320856</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>5.612410862263644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2908577767726541</v>
+        <v>0.2912500765281862</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5037299836872222</v>
+        <v>0.4914476655339826</v>
       </c>
       <c r="E11">
-        <v>0.03352461050665756</v>
+        <v>0.02951621937750204</v>
       </c>
       <c r="F11">
-        <v>11.8342588016063</v>
+        <v>11.64014025855934</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0005813495706579695</v>
       </c>
       <c r="H11">
-        <v>0.1651811326478239</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1677627032408395</v>
       </c>
       <c r="J11">
-        <v>10.0622893355839</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>9.905724420389902</v>
       </c>
       <c r="L11">
-        <v>6.30497310616559</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>6.221019663493649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2973988991208927</v>
+        <v>0.2978173466166822</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5287538418544955</v>
+        <v>0.5154740522297061</v>
       </c>
       <c r="E12">
-        <v>0.03421061557017069</v>
+        <v>0.03014739675441103</v>
       </c>
       <c r="F12">
-        <v>12.35951609568139</v>
+        <v>12.15020855569833</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0005732517459671183</v>
       </c>
       <c r="H12">
-        <v>0.164730365900283</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1670088767681399</v>
       </c>
       <c r="J12">
-        <v>10.46115414148233</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>10.29522220037794</v>
       </c>
       <c r="L12">
-        <v>6.557161074672848</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>6.467716258021198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2959953600297638</v>
+        <v>0.2964078740130844</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5232375730411007</v>
+        <v>0.5101804593997343</v>
       </c>
       <c r="E13">
-        <v>0.03405757689911404</v>
+        <v>0.03000684116577101</v>
       </c>
       <c r="F13">
-        <v>12.24412610240572</v>
+        <v>12.03821738045042</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0005750168905627681</v>
       </c>
       <c r="H13">
-        <v>0.1647868830988628</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1671327298007732</v>
       </c>
       <c r="J13">
-        <v>10.37382538689744</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>10.20999149581002</v>
       </c>
       <c r="L13">
-        <v>6.50194717742923</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>6.413733541545639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.291398184510399</v>
+        <v>0.2917925061862974</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5057336293367456</v>
+        <v>0.4933726015838147</v>
       </c>
       <c r="E14">
-        <v>0.03357877243678065</v>
+        <v>0.02956615916874661</v>
       </c>
       <c r="F14">
-        <v>11.87648761811897</v>
+        <v>11.6811739390503</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.000580692507696039</v>
       </c>
       <c r="H14">
-        <v>0.1651263353621566</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1676838566480967</v>
       </c>
       <c r="J14">
-        <v>10.09448507761959</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>9.93718397002263</v>
       </c>
       <c r="L14">
-        <v>6.325329534032136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>6.240945017179868</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2885679651588759</v>
+        <v>0.2889519497547184</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4953593388522535</v>
+        <v>0.4834038069243576</v>
       </c>
       <c r="E15">
-        <v>0.03329973694582211</v>
+        <v>0.02930867614331856</v>
       </c>
       <c r="F15">
-        <v>11.65751127388711</v>
+        <v>11.4683482498109</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0005841113917001599</v>
       </c>
       <c r="H15">
-        <v>0.1654465280020574</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1681281983933509</v>
       </c>
       <c r="J15">
-        <v>9.927286791182667</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>9.773772857053075</v>
       </c>
       <c r="L15">
-        <v>6.219615274048948</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>6.137447342880748</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.272163549557078</v>
+        <v>0.2724979740526692</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.4403515594835881</v>
+        <v>0.4304718683808062</v>
       </c>
       <c r="E16">
-        <v>0.03187477188351817</v>
+        <v>0.02798570356583241</v>
       </c>
       <c r="F16">
-        <v>10.48245544137129</v>
+        <v>10.32451564325606</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0006029776163381973</v>
       </c>
       <c r="H16">
-        <v>0.168764006222105</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1720913141624258</v>
       </c>
       <c r="J16">
-        <v>9.019181879051075</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>8.884831063085016</v>
       </c>
       <c r="L16">
-        <v>5.645523950533942</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>5.574531844383699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2619631129441728</v>
+        <v>0.262273656593166</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4098205731341977</v>
+        <v>0.401049727826944</v>
       </c>
       <c r="E17">
-        <v>0.03111980229752742</v>
+        <v>0.02727885296567756</v>
       </c>
       <c r="F17">
-        <v>9.819629283141325</v>
+        <v>9.678173696179357</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0006140384680375523</v>
       </c>
       <c r="H17">
-        <v>0.171916797695296</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.175596175404209</v>
       </c>
       <c r="J17">
-        <v>8.498347724013797</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>8.374070361792036</v>
       </c>
       <c r="L17">
-        <v>5.31638579249676</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>5.251238492743823</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.256054733148531</v>
+        <v>0.2563533260103839</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.393206884491903</v>
+        <v>0.3850296338585224</v>
       </c>
       <c r="E18">
-        <v>0.03071857587906557</v>
+        <v>0.02690136144484967</v>
       </c>
       <c r="F18">
-        <v>9.455577224261958</v>
+        <v>9.322886489757678</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0006202544427191814</v>
       </c>
       <c r="H18">
-        <v>0.1740758946513274</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1779458782257706</v>
       </c>
       <c r="J18">
-        <v>8.209469368382969</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>8.090535434231697</v>
       </c>
       <c r="L18">
-        <v>5.133893025242386</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>5.071836713378033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2540478287957342</v>
+        <v>0.2543426386265537</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3877266090930505</v>
+        <v>0.3797438963897406</v>
       </c>
       <c r="E19">
-        <v>0.03058761469805837</v>
+        <v>0.02677785553758572</v>
       </c>
       <c r="F19">
-        <v>9.334951674931943</v>
+        <v>9.205124094320212</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0006223372659037784</v>
       </c>
       <c r="H19">
-        <v>0.1748612924012036</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.178794071841768</v>
       </c>
       <c r="J19">
-        <v>8.113295618349014</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>7.996105238369182</v>
       </c>
       <c r="L19">
-        <v>5.073149016865258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>5.012099806843565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2630534166884502</v>
+        <v>0.2633663067556711</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4129681834477736</v>
+        <v>0.4040841646633027</v>
       </c>
       <c r="E20">
-        <v>0.0311965551617428</v>
+        <v>0.02735091595267303</v>
       </c>
       <c r="F20">
-        <v>9.888330289169033</v>
+        <v>9.745198815890092</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0006128769417826127</v>
       </c>
       <c r="H20">
-        <v>0.1715441483444913</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.1751873558776502</v>
       </c>
       <c r="J20">
-        <v>8.552634576586627</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>8.427334506258291</v>
       </c>
       <c r="L20">
-        <v>5.350685800255306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>5.284946137371477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.292751564733905</v>
+        <v>0.2931510540608144</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5108001049118087</v>
+        <v>0.498239182360976</v>
       </c>
       <c r="E21">
-        <v>0.03371631319656387</v>
+        <v>0.02969289505332551</v>
       </c>
       <c r="F21">
-        <v>11.98313422938861</v>
+        <v>11.78478265190299</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0005790378795091713</v>
       </c>
       <c r="H21">
-        <v>0.1650025725269977</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.167499122072222</v>
       </c>
       <c r="J21">
-        <v>10.17569275720629</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>10.01651967587671</v>
       </c>
       <c r="L21">
-        <v>6.376674777153568</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>6.291193729504698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3115429646600347</v>
+        <v>0.3120338112844649</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5896920010016515</v>
+        <v>0.5738285852598608</v>
       </c>
       <c r="E22">
-        <v>0.03597480194739955</v>
+        <v>0.03175762591955245</v>
       </c>
       <c r="F22">
-        <v>13.61972803579062</v>
+        <v>13.37067508291568</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0005544539271662999</v>
       </c>
       <c r="H22">
-        <v>0.16558530054483</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1670952788101516</v>
       </c>
       <c r="J22">
-        <v>11.40455602781657</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>11.21400872801402</v>
       </c>
       <c r="L22">
-        <v>7.153512521078113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>7.049576433332021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3015885528586608</v>
+        <v>0.3020258939191081</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.545740405428262</v>
+        <v>0.5317641743586137</v>
       </c>
       <c r="E23">
-        <v>0.03468856603930437</v>
+        <v>0.03058545006472535</v>
       </c>
       <c r="F23">
-        <v>12.71345263763476</v>
+        <v>12.49348633400851</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0005678846916329326</v>
       </c>
       <c r="H23">
-        <v>0.1647021069036398</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1667711751413918</v>
       </c>
       <c r="J23">
-        <v>10.72800499425733</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>10.55548622259749</v>
       </c>
       <c r="L23">
-        <v>6.725871150728892</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>6.632556747036062</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2625606254068487</v>
+        <v>0.2628724492563776</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4115422778780271</v>
+        <v>0.4027095578711766</v>
       </c>
       <c r="E24">
-        <v>0.03116175543320399</v>
+        <v>0.02731824844823105</v>
       </c>
       <c r="F24">
-        <v>9.857218515066364</v>
+        <v>9.714846868470914</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0006134025035418565</v>
       </c>
       <c r="H24">
-        <v>0.171711558751138</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.1753711546209047</v>
       </c>
       <c r="J24">
-        <v>8.528059215079935</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>8.403222868518441</v>
       </c>
       <c r="L24">
-        <v>5.335158173794369</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>5.26968713428883</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2188843843017878</v>
+        <v>0.219130572282765</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3028468976614107</v>
+        <v>0.2978286717666236</v>
       </c>
       <c r="E25">
-        <v>0.02863502622510428</v>
+        <v>0.02491708919364477</v>
       </c>
       <c r="F25">
-        <v>7.429995910981887</v>
+        <v>7.343193946442938</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0006569663353630517</v>
       </c>
       <c r="H25">
-        <v>0.1924067467456965</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1973170934941209</v>
       </c>
       <c r="J25">
-        <v>6.561720188179009</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>6.470612977478908</v>
       </c>
       <c r="L25">
-        <v>4.094246293619449</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>4.048166264281619</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.186169969570372</v>
+        <v>0.2708670291434743</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.235404119087363</v>
+        <v>0.01204080022891674</v>
       </c>
       <c r="E2">
-        <v>0.02354045103362967</v>
+        <v>0.008018038737339139</v>
       </c>
       <c r="F2">
-        <v>5.870659184766396</v>
+        <v>2.095549235751292</v>
       </c>
       <c r="G2">
-        <v>0.0006871868013456073</v>
+        <v>0.0007273433420420917</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2201407669297737</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.214128110865971</v>
+        <v>4.17719694877286</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3.256341731923101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>2.763551232117393</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.653799610593012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1634954219180997</v>
+        <v>0.2363191112540619</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1985565278365726</v>
+        <v>0.01034457165677694</v>
       </c>
       <c r="E3">
-        <v>0.02273034873249014</v>
+        <v>0.01059562078100806</v>
       </c>
       <c r="F3">
-        <v>4.974499497608463</v>
+        <v>1.800850959217129</v>
       </c>
       <c r="G3">
-        <v>0.0007072675758323337</v>
+        <v>0.000739539134722757</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2386159490227335</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.422729699972507</v>
+        <v>3.606162573599931</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.758966435671795</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>2.376094031034825</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.420933529417908</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1494345059732041</v>
+        <v>0.2153588120670236</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1778281195542206</v>
+        <v>0.009641976136919084</v>
       </c>
       <c r="E4">
-        <v>0.02227178974610666</v>
+        <v>0.01237630003094137</v>
       </c>
       <c r="F4">
-        <v>4.459728837753204</v>
+        <v>1.629908351318676</v>
       </c>
       <c r="G4">
-        <v>0.0007195620297273386</v>
+        <v>0.0007471429567851024</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2511879610618095</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3.957148027412046</v>
+        <v>3.260832061012906</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.466965096753228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>2.142833242996616</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.28645933515881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1436729243036297</v>
+        <v>0.2068728422040493</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1697672521319191</v>
+        <v>0.009429401111393787</v>
       </c>
       <c r="E5">
-        <v>0.022092471395605</v>
+        <v>0.01314795260769008</v>
       </c>
       <c r="F5">
-        <v>4.257185523293003</v>
+        <v>1.562414667193309</v>
       </c>
       <c r="G5">
-        <v>0.000724581862978857</v>
+        <v>0.0007502754525315555</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2565898228562986</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.771467754914795</v>
+        <v>3.121172858389457</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.350653208378745</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2.048731410130088</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.233503944038389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1427143889743405</v>
+        <v>0.2054668894290614</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1684497810057337</v>
+        <v>0.009398251344194364</v>
       </c>
       <c r="E6">
-        <v>0.0220630990615529</v>
+        <v>0.01327876243268988</v>
       </c>
       <c r="F6">
-        <v>4.223947127929762</v>
+        <v>1.551328904230388</v>
       </c>
       <c r="G6">
-        <v>0.0007254164634225013</v>
+        <v>0.0007507977768166363</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2575028504652526</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.740853146464417</v>
+        <v>3.098039859419657</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.331484223385374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2.033157775469775</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.224814192296677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1493569276100999</v>
+        <v>0.2152441524230113</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1777179502938679</v>
+        <v>0.009638824717793426</v>
       </c>
       <c r="E7">
-        <v>0.02226934328469454</v>
+        <v>0.01238652515594973</v>
       </c>
       <c r="F7">
-        <v>4.456969974433264</v>
+        <v>1.628989763078778</v>
       </c>
       <c r="G7">
-        <v>0.0007196296676183112</v>
+        <v>0.0007471850595900228</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2512597199774671</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3.95462873604879</v>
+        <v>3.258944576545005</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.46538642226578</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2.141560552124403</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.285738056841069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1783827279080299</v>
+        <v>0.2588975381246712</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2222441617201838</v>
+        <v>0.01137815473504489</v>
       </c>
       <c r="E8">
-        <v>0.02325148892891349</v>
+        <v>0.008863245596799185</v>
       </c>
       <c r="F8">
-        <v>5.553160222091208</v>
+        <v>1.991636403328016</v>
       </c>
       <c r="G8">
-        <v>0.0006941305016652864</v>
+        <v>0.0007315275689433907</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2262360029725592</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.93631217288214</v>
+        <v>3.979036832634193</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>3.081605485423751</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2.628855767484666</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.571551596815951</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2340062753043384</v>
+        <v>0.3469082597775923</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3301898359634237</v>
+        <v>0.01810116076618939</v>
       </c>
       <c r="E9">
-        <v>0.02564184107818424</v>
+        <v>0.003727535102326041</v>
       </c>
       <c r="F9">
-        <v>8.087429664180974</v>
+        <v>2.800768392615282</v>
       </c>
       <c r="G9">
-        <v>0.0006427133707925202</v>
+        <v>0.0007014837410175427</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1886903403765388</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>7.08804529382968</v>
+        <v>5.447209673400351</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4.438031349215976</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3.632641795942604</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.215295226426278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2736587345764008</v>
+        <v>0.4136896324245214</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4339657275088626</v>
+        <v>0.02614785504954042</v>
       </c>
       <c r="E10">
-        <v>0.02807090193145267</v>
+        <v>0.001380927793640518</v>
       </c>
       <c r="F10">
-        <v>10.4007536520329</v>
+        <v>3.486791189998229</v>
       </c>
       <c r="G10">
-        <v>0.000601692931577526</v>
+        <v>0.0006793768007546347</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1717406158880266</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.944661686950951</v>
+        <v>6.584192785890366</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>5.612410862263644</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>4.418968621332212</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.766006818905183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2912500765281862</v>
+        <v>0.4447063804593085</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4914476655339826</v>
+        <v>0.03081411349538854</v>
       </c>
       <c r="E11">
-        <v>0.02951621937750204</v>
+        <v>0.0007252614925101764</v>
       </c>
       <c r="F11">
-        <v>11.64014025855934</v>
+        <v>3.828164097399224</v>
       </c>
       <c r="G11">
-        <v>0.0005813495706579695</v>
+        <v>0.0006691844576473015</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1677627032408395</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.905724420389902</v>
+        <v>7.121179389542363</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>6.221019663493649</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>4.793015282617915</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>3.041414072263521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2978173466166822</v>
+        <v>0.4565609913998401</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5154740522297061</v>
+        <v>0.03276304041952116</v>
       </c>
       <c r="E12">
-        <v>0.03014739675441103</v>
+        <v>0.0005474234353725072</v>
       </c>
       <c r="F12">
-        <v>12.15020855569833</v>
+        <v>3.962680715769949</v>
       </c>
       <c r="G12">
-        <v>0.0005732517459671183</v>
+        <v>0.0006652913731219435</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1670088767681399</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.29522220037794</v>
+        <v>7.328135922057982</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>6.467716258021198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>4.9376316419673</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>3.150162785054761</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2964078740130844</v>
+        <v>0.4540027153216784</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5101804593997343</v>
+        <v>0.0323345065907219</v>
       </c>
       <c r="E13">
-        <v>0.03000684116577101</v>
+        <v>0.0005823811070841955</v>
       </c>
       <c r="F13">
-        <v>12.03821738045042</v>
+        <v>3.933457483679632</v>
       </c>
       <c r="G13">
-        <v>0.0005750168905627681</v>
+        <v>0.0006661315674350357</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1671327298007732</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.20999149581002</v>
+        <v>7.283389179598032</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>6.413733541545639</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4.906342069244033</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>3.126527051330285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2917925061862974</v>
+        <v>0.4456793648365789</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4933726015838147</v>
+        <v>0.03097055627734946</v>
       </c>
       <c r="E14">
-        <v>0.02956615916874661</v>
+        <v>0.0007091442607322085</v>
       </c>
       <c r="F14">
-        <v>11.6811739390503</v>
+        <v>3.839118849590193</v>
       </c>
       <c r="G14">
-        <v>0.000580692507696039</v>
+        <v>0.0006688649344984585</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1676838566480967</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.93718397002263</v>
+        <v>7.138128358912866</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>6.240945017179868</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4.804849244036447</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>3.050265697027896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2889519497547184</v>
+        <v>0.4405958751713968</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4834038069243576</v>
+        <v>0.03016007029636469</v>
       </c>
       <c r="E15">
-        <v>0.02930867614331856</v>
+        <v>0.0007963462027171797</v>
       </c>
       <c r="F15">
-        <v>11.4683482498109</v>
+        <v>3.782052077677491</v>
       </c>
       <c r="G15">
-        <v>0.0005841113917001599</v>
+        <v>0.0006705343690760479</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1681281983933509</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.773772857053075</v>
+        <v>7.049648289124889</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>6.137447342880748</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4.743090275159744</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>3.004163928766587</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2724979740526692</v>
+        <v>0.4116768746289239</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.4304718683808062</v>
+        <v>0.0258661066703425</v>
       </c>
       <c r="E16">
-        <v>0.02798570356583241</v>
+        <v>0.001432962435070628</v>
       </c>
       <c r="F16">
-        <v>10.32451564325606</v>
+        <v>3.465153777286645</v>
       </c>
       <c r="G16">
-        <v>0.0006029776163381973</v>
+        <v>0.0006800390468262535</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1720913141624258</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.884831063085016</v>
+        <v>6.549558783284397</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>5.574531844383699</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4.394902507832882</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.748579328594985</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.262273656593166</v>
+        <v>0.3941108410295442</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.401049727826944</v>
+        <v>0.0235130483486401</v>
       </c>
       <c r="E17">
-        <v>0.02727885296567756</v>
+        <v>0.001936149787483799</v>
       </c>
       <c r="F17">
-        <v>9.678173696179357</v>
+        <v>3.278909001937535</v>
       </c>
       <c r="G17">
-        <v>0.0006140384680375523</v>
+        <v>0.0006858261839429635</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.175596175404209</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.374070361792036</v>
+        <v>6.248324371586961</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>5.251238492743823</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4.185884195577401</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.598720267989208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2563533260103839</v>
+        <v>0.38406612011687</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3850296338585224</v>
+        <v>0.02225157656113197</v>
       </c>
       <c r="E18">
-        <v>0.02690136144484967</v>
+        <v>0.0022635226756752</v>
       </c>
       <c r="F18">
-        <v>9.322886489757678</v>
+        <v>3.174468980660436</v>
       </c>
       <c r="G18">
-        <v>0.0006202544427191814</v>
+        <v>0.000689143015374307</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1779458782257706</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.090535434231697</v>
+        <v>6.076867604324633</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>5.071836713378033</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>4.067155794459524</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.514804127867365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2543426386265537</v>
+        <v>0.3806747632768435</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3797438963897406</v>
+        <v>0.02183927508153261</v>
       </c>
       <c r="E19">
-        <v>0.02677785553758572</v>
+        <v>0.002380584656493462</v>
       </c>
       <c r="F19">
-        <v>9.205124094320212</v>
+        <v>3.139540728500151</v>
       </c>
       <c r="G19">
-        <v>0.0006223372659037784</v>
+        <v>0.0006902643862883225</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.178794071841768</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>7.996105238369182</v>
+        <v>6.019104823744186</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>5.012099806843565</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4.027196275952605</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.486759588443775</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2633663067556711</v>
+        <v>0.3959745727527633</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4040841646633027</v>
+        <v>0.02375378065318401</v>
       </c>
       <c r="E20">
-        <v>0.02735091595267303</v>
+        <v>0.001878583919009857</v>
       </c>
       <c r="F20">
-        <v>9.745198815890092</v>
+        <v>3.298450712106074</v>
       </c>
       <c r="G20">
-        <v>0.0006128769417826127</v>
+        <v>0.0006852114424730216</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1751873558776502</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.427334506258291</v>
+        <v>6.28019945984471</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>5.284946137371477</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4.207975952405448</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.614431489094642</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2931510540608144</v>
+        <v>0.4481210136538181</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.498239182360976</v>
+        <v>0.03136589541466961</v>
       </c>
       <c r="E21">
-        <v>0.02969289505332551</v>
+        <v>0.0006698952176451556</v>
       </c>
       <c r="F21">
-        <v>11.78478265190299</v>
+        <v>3.866676452220872</v>
       </c>
       <c r="G21">
-        <v>0.0005790378795091713</v>
+        <v>0.0006680631153239506</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.167499122072222</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.01651967587671</v>
+        <v>7.180689884821788</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>6.291193729504698</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>4.834573712410474</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>3.072536371341968</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3120338112844649</v>
+        <v>0.482849164193496</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5738285852598608</v>
+        <v>0.03742678950690248</v>
       </c>
       <c r="E22">
-        <v>0.03175762591955245</v>
+        <v>0.0002980371847864927</v>
       </c>
       <c r="F22">
-        <v>13.37067508291568</v>
+        <v>4.269314293467573</v>
       </c>
       <c r="G22">
-        <v>0.0005544539271662999</v>
+        <v>0.0006566513497844809</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1670952788101516</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.21400872801402</v>
+        <v>7.790771395368267</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>7.049576433332021</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>5.261834100391141</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>3.398508125223614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3020258939191081</v>
+        <v>0.4642481535156833</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5317641743586137</v>
+        <v>0.03407737909351738</v>
       </c>
       <c r="E23">
-        <v>0.03058545006472535</v>
+        <v>0.0004537459261850785</v>
       </c>
       <c r="F23">
-        <v>12.49348633400851</v>
+        <v>4.051141845155456</v>
       </c>
       <c r="G23">
-        <v>0.0005678846916329326</v>
+        <v>0.0006627663167746434</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1667711751413918</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.55548622259749</v>
+        <v>7.462879026988702</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>6.632556747036062</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5.031924060545023</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>3.221745005507429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2628724492563776</v>
+        <v>0.3951318120214751</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4027095578711766</v>
+        <v>0.02364466376522145</v>
       </c>
       <c r="E24">
-        <v>0.02731824844823105</v>
+        <v>0.001904491633973826</v>
       </c>
       <c r="F24">
-        <v>9.714846868470914</v>
+        <v>3.28960777307978</v>
       </c>
       <c r="G24">
-        <v>0.0006134025035418565</v>
+        <v>0.0006854893980172694</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1753711546209047</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.403222868518441</v>
+        <v>6.265783408879059</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>5.26968713428883</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4.197983831790481</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.607321532665154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.219130572282765</v>
+        <v>0.3227793792536175</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2978286717666236</v>
+        <v>0.01582952789654613</v>
       </c>
       <c r="E25">
-        <v>0.02491708919364477</v>
+        <v>0.004895454368069374</v>
       </c>
       <c r="F25">
-        <v>7.343193946442938</v>
+        <v>2.568476730050435</v>
       </c>
       <c r="G25">
-        <v>0.0006569663353630517</v>
+        <v>0.000709580730651412</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1973170934941209</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.470612977478908</v>
+        <v>5.041814165764862</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>4.048166264281619</v>
+        <v>3.354147537919914</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.029764595969908</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_54/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2708670291434743</v>
+        <v>0.4829423604848841</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01204080022891674</v>
+        <v>0.09901808678346669</v>
       </c>
       <c r="E2">
-        <v>0.008018038737339139</v>
+        <v>0.05335181896802155</v>
       </c>
       <c r="F2">
-        <v>2.095549235751292</v>
+        <v>2.902953019391617</v>
       </c>
       <c r="G2">
-        <v>0.0007273433420420917</v>
+        <v>0.0008173611473109145</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.616789003517226</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>4.17719694877286</v>
+        <v>2.028529816130884</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4561706163020034</v>
       </c>
       <c r="M2">
-        <v>2.763551232117393</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.653799610593012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2363191112540619</v>
+        <v>0.4233968009403668</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01034457165677694</v>
+        <v>0.09737839885315935</v>
       </c>
       <c r="E3">
-        <v>0.01059562078100806</v>
+        <v>0.04949110653460842</v>
       </c>
       <c r="F3">
-        <v>1.800850959217129</v>
+        <v>2.634413976378639</v>
       </c>
       <c r="G3">
-        <v>0.000739539134722757</v>
+        <v>0.0008257213822541629</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.524913617246952</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.606162573599931</v>
+        <v>1.745881203954184</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3982559815059972</v>
       </c>
       <c r="M3">
-        <v>2.376094031034825</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.420933529417908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2153588120670236</v>
+        <v>0.38744485218362</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.009641976136919084</v>
+        <v>0.09642367213605496</v>
       </c>
       <c r="E4">
-        <v>0.01237630003094137</v>
+        <v>0.0471728338120414</v>
       </c>
       <c r="F4">
-        <v>1.629908351318676</v>
+        <v>2.473809580717045</v>
       </c>
       <c r="G4">
-        <v>0.0007471429567851024</v>
+        <v>0.0008309921643886261</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.470230721445091</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3.260832061012906</v>
+        <v>1.575231421457602</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3633896274180159</v>
       </c>
       <c r="M4">
-        <v>2.142833242996616</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.28645933515881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2068728422040493</v>
+        <v>0.3729327183192197</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.009429401111393787</v>
+        <v>0.09604649922810182</v>
       </c>
       <c r="E5">
-        <v>0.01314795260769008</v>
+        <v>0.0462384343902098</v>
       </c>
       <c r="F5">
-        <v>1.562414667193309</v>
+        <v>2.409327449880067</v>
       </c>
       <c r="G5">
-        <v>0.0007502754525315555</v>
+        <v>0.0008331761886266299</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.448343286567052</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.121172858389457</v>
+        <v>1.506314799307262</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3493354302752181</v>
       </c>
       <c r="M5">
-        <v>2.048731410130088</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.233503944038389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2054668894290614</v>
+        <v>0.3705309524767273</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009398251344194364</v>
+        <v>0.09598455450745291</v>
       </c>
       <c r="E6">
-        <v>0.01327876243268988</v>
+        <v>0.04608382426970259</v>
       </c>
       <c r="F6">
-        <v>1.551328904230388</v>
+        <v>2.398675480983158</v>
       </c>
       <c r="G6">
-        <v>0.0007507977768166363</v>
+        <v>0.0008335410698793916</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.444731758703895</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.098039859419657</v>
+        <v>1.494906089268994</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3470104882575953</v>
       </c>
       <c r="M6">
-        <v>2.033157775469775</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.224814192296677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2152441524230113</v>
+        <v>0.387248593910769</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009638824717793426</v>
+        <v>0.09641853884333074</v>
       </c>
       <c r="E7">
-        <v>0.01238652515594973</v>
+        <v>0.04716019391841186</v>
       </c>
       <c r="F7">
-        <v>1.628989763078778</v>
+        <v>2.472936183004819</v>
       </c>
       <c r="G7">
-        <v>0.0007471850595900228</v>
+        <v>0.0008310214707160137</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.469933984058343</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3.258944576545005</v>
+        <v>1.574299590271721</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.363199489167755</v>
       </c>
       <c r="M7">
-        <v>2.141560552124403</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.285738056841069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2588975381246712</v>
+        <v>0.4622754250450924</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01137815473504489</v>
+        <v>0.0984411648498309</v>
       </c>
       <c r="E8">
-        <v>0.008863245596799185</v>
+        <v>0.0520080168148862</v>
       </c>
       <c r="F8">
-        <v>1.991636403328016</v>
+        <v>2.809403016546128</v>
       </c>
       <c r="G8">
-        <v>0.0007315275689433907</v>
+        <v>0.0008202161736508137</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.584727425139576</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.979036832634193</v>
+        <v>1.930405659396939</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4360450055210094</v>
       </c>
       <c r="M8">
-        <v>2.628855767484666</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.571551596815951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3469082597775923</v>
+        <v>0.6149652239201373</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01810116076618939</v>
+        <v>0.10288042679678</v>
       </c>
       <c r="E9">
-        <v>0.003727535102326041</v>
+        <v>0.06207353604668242</v>
       </c>
       <c r="F9">
-        <v>2.800768392615282</v>
+        <v>3.508688286185873</v>
       </c>
       <c r="G9">
-        <v>0.0007014837410175427</v>
+        <v>0.0008000418162567408</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.82546255464149</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>5.447209673400351</v>
+        <v>2.65694181558672</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.5854070418527897</v>
       </c>
       <c r="M9">
-        <v>3.632641795942604</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.215295226426278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4136896324245214</v>
+        <v>0.7316656856400243</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02614785504954042</v>
+        <v>0.1065237271983932</v>
       </c>
       <c r="E10">
-        <v>0.001380927793640518</v>
+        <v>0.07004278942087261</v>
       </c>
       <c r="F10">
-        <v>3.486791189998229</v>
+        <v>4.055108656616056</v>
       </c>
       <c r="G10">
-        <v>0.0006793768007546347</v>
+        <v>0.0007857194852538224</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.014806374531304</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>6.584192785890366</v>
+        <v>3.216116221650566</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.7006849527178929</v>
       </c>
       <c r="M10">
-        <v>4.418968621332212</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.766006818905183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4447063804593085</v>
+        <v>0.7860221766526081</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03081411349538854</v>
+        <v>0.1082881669095244</v>
       </c>
       <c r="E11">
-        <v>0.0007252614925101764</v>
+        <v>0.07385578321430231</v>
       </c>
       <c r="F11">
-        <v>3.828164097399224</v>
+        <v>4.312980425753523</v>
       </c>
       <c r="G11">
-        <v>0.0006691844576473015</v>
+        <v>0.0007792821598176459</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.104401690487322</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>7.121179389542363</v>
+        <v>3.478128127143009</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.7547328110234446</v>
       </c>
       <c r="M11">
-        <v>4.793015282617915</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.041414072263521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4565609913998401</v>
+        <v>0.8068148106891897</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03276304041952116</v>
+        <v>0.1089740412082847</v>
       </c>
       <c r="E12">
-        <v>0.0005474234353725072</v>
+        <v>0.07533296412104917</v>
       </c>
       <c r="F12">
-        <v>3.962680715769949</v>
+        <v>4.412177856922114</v>
       </c>
       <c r="G12">
-        <v>0.0006652913731219435</v>
+        <v>0.0007768528513910777</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.138898000454404</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>7.328135922057982</v>
+        <v>3.578647776464834</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.7754687512521912</v>
       </c>
       <c r="M12">
-        <v>4.9376316419673</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.150162785054761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4540027153216784</v>
+        <v>0.802326992770503</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0323345065907219</v>
+        <v>0.1088254974937968</v>
       </c>
       <c r="E13">
-        <v>0.0005823811070841955</v>
+        <v>0.07501323526875758</v>
       </c>
       <c r="F13">
-        <v>3.933457483679632</v>
+        <v>4.390741488224478</v>
       </c>
       <c r="G13">
-        <v>0.0006661315674350357</v>
+        <v>0.0007773757235147231</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.131442098881536</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>7.283389179598032</v>
+        <v>3.556937667018985</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.7709902652399023</v>
       </c>
       <c r="M13">
-        <v>4.906342069244033</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.126527051330285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4456793648365789</v>
+        <v>0.7877284470754944</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03097055627734946</v>
+        <v>0.1083442246645632</v>
       </c>
       <c r="E14">
-        <v>0.0007091442607322085</v>
+        <v>0.07397660504085657</v>
       </c>
       <c r="F14">
-        <v>3.839118849590193</v>
+        <v>4.32110915871192</v>
       </c>
       <c r="G14">
-        <v>0.0006688649344984585</v>
+        <v>0.0007790821490607387</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.107227892915787</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>7.138128358912866</v>
+        <v>3.48637059773273</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.7564331391327244</v>
       </c>
       <c r="M14">
-        <v>4.804849244036447</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.050265697027896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4405958751713968</v>
+        <v>0.7788144766609832</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03016007029636469</v>
+        <v>0.1080518129496824</v>
       </c>
       <c r="E15">
-        <v>0.0007963462027171797</v>
+        <v>0.0733461776202553</v>
       </c>
       <c r="F15">
-        <v>3.782052077677491</v>
+        <v>4.278665481464628</v>
       </c>
       <c r="G15">
-        <v>0.0006705343690760479</v>
+        <v>0.0007801283830369069</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.092472275194552</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>7.049648289124889</v>
+        <v>3.443322196116696</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.7475527469614462</v>
       </c>
       <c r="M15">
-        <v>4.743090275159744</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.004163928766587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4116768746289239</v>
+        <v>0.7281410941579054</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0258661066703425</v>
+        <v>0.1064107631484106</v>
       </c>
       <c r="E16">
-        <v>0.001432962435070628</v>
+        <v>0.06979789368814338</v>
       </c>
       <c r="F16">
-        <v>3.465153777286645</v>
+        <v>4.03846061229757</v>
       </c>
       <c r="G16">
-        <v>0.0006800390468262535</v>
+        <v>0.0007861415133360618</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.009026622004541</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>6.549558783284397</v>
+        <v>3.199163598851385</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.6971882880181965</v>
       </c>
       <c r="M16">
-        <v>4.394902507832882</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.748579328594985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3941108410295442</v>
+        <v>0.6973975485589108</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0235130483486401</v>
+        <v>0.1054330158397434</v>
       </c>
       <c r="E17">
-        <v>0.001936149787483799</v>
+        <v>0.0676733848645874</v>
       </c>
       <c r="F17">
-        <v>3.278909001937535</v>
+        <v>3.89362606306355</v>
       </c>
       <c r="G17">
-        <v>0.0006858261839429635</v>
+        <v>0.0007898484293613617</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.958769761334224</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>6.248324371586961</v>
+        <v>3.051473152426155</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.6667286251814204</v>
       </c>
       <c r="M17">
-        <v>4.185884195577401</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.598720267989208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.38406612011687</v>
+        <v>0.6798323462950577</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02225157656113197</v>
+        <v>0.1048805649488997</v>
       </c>
       <c r="E18">
-        <v>0.0022635226756752</v>
+        <v>0.06646866358282821</v>
       </c>
       <c r="F18">
-        <v>3.174468980660436</v>
+        <v>3.811182659034756</v>
       </c>
       <c r="G18">
-        <v>0.000689143015374307</v>
+        <v>0.0007919880786142475</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.930184488538401</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>6.076867604324633</v>
+        <v>2.96723108040166</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.6493577855729313</v>
       </c>
       <c r="M18">
-        <v>4.067155794459524</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.514804127867365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3806747632768435</v>
+        <v>0.6739045209825463</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02183927508153261</v>
+        <v>0.1046951531389553</v>
       </c>
       <c r="E19">
-        <v>0.002380584656493462</v>
+        <v>0.06606355118089624</v>
       </c>
       <c r="F19">
-        <v>3.139540728500151</v>
+        <v>3.783410764633629</v>
       </c>
       <c r="G19">
-        <v>0.0006902643862883225</v>
+        <v>0.0007927139012533662</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.920559145366781</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>6.019104823744186</v>
+        <v>2.938823595956706</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.6435007824359502</v>
       </c>
       <c r="M19">
-        <v>4.027196275952605</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.486759588443775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3959745727527633</v>
+        <v>0.7006578902424678</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02375378065318401</v>
+        <v>0.1055360558278693</v>
       </c>
       <c r="E20">
-        <v>0.001878583919009857</v>
+        <v>0.06789771583698112</v>
       </c>
       <c r="F20">
-        <v>3.298450712106074</v>
+        <v>3.908953343538116</v>
       </c>
       <c r="G20">
-        <v>0.0006852114424730216</v>
+        <v>0.0007894530621368077</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.964085967617493</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>6.28019945984471</v>
+        <v>3.06712064562916</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.6699554522789413</v>
       </c>
       <c r="M20">
-        <v>4.207975952405448</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.614431489094642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4481210136538181</v>
+        <v>0.7920104942151625</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03136589541466961</v>
+        <v>0.1084850852046912</v>
       </c>
       <c r="E21">
-        <v>0.0006698952176451556</v>
+        <v>0.0742801299349658</v>
       </c>
       <c r="F21">
-        <v>3.866676452220872</v>
+        <v>4.341518074243567</v>
       </c>
       <c r="G21">
-        <v>0.0006680631153239506</v>
+        <v>0.0007785807278897215</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.114324156287523</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>7.180689884821788</v>
+        <v>3.5070607842855</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.7607012868937773</v>
       </c>
       <c r="M21">
-        <v>4.834573712410474</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.072536371341968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.482849164193496</v>
+        <v>0.8529476350479683</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03742678950690248</v>
+        <v>0.1105170424217476</v>
       </c>
       <c r="E22">
-        <v>0.0002980371847864927</v>
+        <v>0.07864910708347672</v>
       </c>
       <c r="F22">
-        <v>4.269314293467573</v>
+        <v>4.633358669230688</v>
       </c>
       <c r="G22">
-        <v>0.0006566513497844809</v>
+        <v>0.0007715222049999635</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.215866552012216</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>7.790771395368267</v>
+        <v>3.802287548408628</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.8215992731661004</v>
       </c>
       <c r="M22">
-        <v>5.261834100391141</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.398508125223614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4642481535156833</v>
+        <v>0.8203019120399517</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03407737909351738</v>
+        <v>0.1094221263421105</v>
       </c>
       <c r="E23">
-        <v>0.0004537459261850785</v>
+        <v>0.07629685496053185</v>
       </c>
       <c r="F23">
-        <v>4.051141845155456</v>
+        <v>4.476685591930163</v>
       </c>
       <c r="G23">
-        <v>0.0006627663167746434</v>
+        <v>0.0007752861928087551</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.161338957395174</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>7.462879026988702</v>
+        <v>3.643940505973433</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.7889374805355089</v>
       </c>
       <c r="M23">
-        <v>5.031924060545023</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.221745005507429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3951318120214751</v>
+        <v>0.6991835501316359</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02364466376522145</v>
+        <v>0.1054894415041048</v>
       </c>
       <c r="E24">
-        <v>0.001904491633973826</v>
+        <v>0.06779624428862441</v>
       </c>
       <c r="F24">
-        <v>3.28960777307978</v>
+        <v>3.90202132922164</v>
       </c>
       <c r="G24">
-        <v>0.0006854893980172694</v>
+        <v>0.0007896317810122736</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.961681556434186</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>6.265783408879059</v>
+        <v>3.06004435094431</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.6684961679192725</v>
       </c>
       <c r="M24">
-        <v>4.197983831790481</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.607321532665154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3227793792536175</v>
+        <v>0.5729534607596065</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01582952789654613</v>
+        <v>0.1016198503137389</v>
       </c>
       <c r="E25">
-        <v>0.004895454368069374</v>
+        <v>0.05926862132037236</v>
       </c>
       <c r="F25">
-        <v>2.568476730050435</v>
+        <v>3.314456703343637</v>
       </c>
       <c r="G25">
-        <v>0.000709580730651412</v>
+        <v>0.0008054023973219564</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.75837835950756</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>5.041814165764862</v>
+        <v>2.456585493645633</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.5441514476179776</v>
       </c>
       <c r="M25">
-        <v>3.354147537919914</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.029764595969908</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_54/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4829423604848841</v>
+        <v>0.5190871431972823</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.09901808678346669</v>
+        <v>0.1190062623558674</v>
       </c>
       <c r="E2">
-        <v>0.05335181896802155</v>
+        <v>0.06415857793147062</v>
       </c>
       <c r="F2">
-        <v>2.902953019391617</v>
+        <v>2.466724915107989</v>
       </c>
       <c r="G2">
-        <v>0.0008173611473109145</v>
+        <v>0.002532243446708527</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.616789003517226</v>
+        <v>1.824092820839297</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.028529816130884</v>
+        <v>0.8231104967113367</v>
       </c>
       <c r="L2">
-        <v>0.4561706163020034</v>
+        <v>0.2950475121658513</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4233968009403668</v>
+        <v>0.5087830456629234</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09737839885315935</v>
+        <v>0.118189322361637</v>
       </c>
       <c r="E3">
-        <v>0.04949110653460842</v>
+        <v>0.06298639832995256</v>
       </c>
       <c r="F3">
-        <v>2.634413976378639</v>
+        <v>2.399267520623908</v>
       </c>
       <c r="G3">
-        <v>0.0008257213822541629</v>
+        <v>0.002537325230754242</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.524913617246952</v>
+        <v>1.800343700363314</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.745881203954184</v>
+        <v>0.7540332428670524</v>
       </c>
       <c r="L3">
-        <v>0.3982559815059972</v>
+        <v>0.2814279673159206</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.38744485218362</v>
+        <v>0.502835730117468</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.09642367213605496</v>
+        <v>0.1176923251201174</v>
       </c>
       <c r="E4">
-        <v>0.0471728338120414</v>
+        <v>0.06225217663774796</v>
       </c>
       <c r="F4">
-        <v>2.473809580717045</v>
+        <v>2.358830509865385</v>
       </c>
       <c r="G4">
-        <v>0.0008309921643886261</v>
+        <v>0.002540609031785225</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.470230721445091</v>
+        <v>1.786195376329331</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.575231421457602</v>
+        <v>0.7121914339318209</v>
       </c>
       <c r="L4">
-        <v>0.3633896274180159</v>
+        <v>0.273256141499445</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3729327183192197</v>
+        <v>0.5005077799678048</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.09604649922810182</v>
+        <v>0.1174909165794986</v>
       </c>
       <c r="E5">
-        <v>0.0462384343902098</v>
+        <v>0.06194926451315119</v>
       </c>
       <c r="F5">
-        <v>2.409327449880067</v>
+        <v>2.342597567824996</v>
       </c>
       <c r="G5">
-        <v>0.0008331761886266299</v>
+        <v>0.002541988477594099</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.448343286567052</v>
+        <v>1.780538335155541</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.506314799307262</v>
+        <v>0.695283139665861</v>
       </c>
       <c r="L5">
-        <v>0.3493354302752181</v>
+        <v>0.2699738035559847</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3705309524767273</v>
+        <v>0.5001270078269755</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.09598455450745291</v>
+        <v>0.1174575395289281</v>
       </c>
       <c r="E6">
-        <v>0.04608382426970259</v>
+        <v>0.06189874017349872</v>
       </c>
       <c r="F6">
-        <v>2.398675480983158</v>
+        <v>2.339916882555968</v>
       </c>
       <c r="G6">
-        <v>0.0008335410698793916</v>
+        <v>0.002542220030228547</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.444731758703895</v>
+        <v>1.779605525830796</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.494906089268994</v>
+        <v>0.6924841065041107</v>
       </c>
       <c r="L6">
-        <v>0.3470104882575953</v>
+        <v>0.2694316522549229</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.387248593910769</v>
+        <v>0.5028039470807215</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.09641853884333074</v>
+        <v>0.117689604360919</v>
       </c>
       <c r="E7">
-        <v>0.04716019391841186</v>
+        <v>0.06224810656772028</v>
       </c>
       <c r="F7">
-        <v>2.472936183004819</v>
+        <v>2.358610594825691</v>
       </c>
       <c r="G7">
-        <v>0.0008310214707160137</v>
+        <v>0.002540627468184863</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.469933984058343</v>
+        <v>1.786118644857268</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.574299590271721</v>
+        <v>0.7119628270573628</v>
       </c>
       <c r="L7">
-        <v>0.363199489167755</v>
+        <v>0.2732116816603423</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4622754250450924</v>
+        <v>0.5154556598492093</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0984411648498309</v>
+        <v>0.1187236029720822</v>
       </c>
       <c r="E8">
-        <v>0.0520080168148862</v>
+        <v>0.06375738006666509</v>
       </c>
       <c r="F8">
-        <v>2.809403016546128</v>
+        <v>2.443260847141062</v>
       </c>
       <c r="G8">
-        <v>0.0008202161736508137</v>
+        <v>0.00253396178274967</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.584727425139576</v>
+        <v>1.815813763245146</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.930405659396939</v>
+        <v>0.7991731937729014</v>
       </c>
       <c r="L8">
-        <v>0.4360450055210094</v>
+        <v>0.2903118089038088</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6149652239201373</v>
+        <v>0.5432692788095039</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.10288042679678</v>
+        <v>0.1207895624821447</v>
       </c>
       <c r="E9">
-        <v>0.06207353604668242</v>
+        <v>0.06660505690919472</v>
       </c>
       <c r="F9">
-        <v>3.508688286185873</v>
+        <v>2.617129846088716</v>
       </c>
       <c r="G9">
-        <v>0.0008000418162567408</v>
+        <v>0.002522181797816957</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.82546255464149</v>
+        <v>1.877515772940654</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.65694181558672</v>
+        <v>0.9747959200570335</v>
       </c>
       <c r="L9">
-        <v>0.5854070418527897</v>
+        <v>0.3253683676232555</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7316656856400243</v>
+        <v>0.5655291410431289</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1065237271983932</v>
+        <v>0.1223332863957936</v>
       </c>
       <c r="E10">
-        <v>0.07004278942087261</v>
+        <v>0.0686333193248263</v>
       </c>
       <c r="F10">
-        <v>4.055108656616056</v>
+        <v>2.749791626285372</v>
       </c>
       <c r="G10">
-        <v>0.0007857194852538224</v>
+        <v>0.002514305326397243</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.014806374531304</v>
+        <v>1.925008446808476</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.216116221650566</v>
+        <v>1.106738105527029</v>
       </c>
       <c r="L10">
-        <v>0.7006849527178929</v>
+        <v>0.3520710614844518</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7860221766526081</v>
+        <v>0.5760511131559554</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1082881669095244</v>
+        <v>0.1230417302357978</v>
       </c>
       <c r="E11">
-        <v>0.07385578321430231</v>
+        <v>0.06954310741844871</v>
       </c>
       <c r="F11">
-        <v>4.312980425753523</v>
+        <v>2.811238749886883</v>
       </c>
       <c r="G11">
-        <v>0.0007792821598176459</v>
+        <v>0.002510889192652278</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.104401690487322</v>
+        <v>1.947093161728063</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.478128127143009</v>
+        <v>1.167418412017696</v>
       </c>
       <c r="L11">
-        <v>0.7547328110234446</v>
+        <v>0.3644284958955097</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8068148106891897</v>
+        <v>0.5800922929035153</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1089740412082847</v>
+        <v>0.1233109318220471</v>
       </c>
       <c r="E12">
-        <v>0.07533296412104917</v>
+        <v>0.06988584507777951</v>
       </c>
       <c r="F12">
-        <v>4.412177856922114</v>
+        <v>2.834667088191736</v>
       </c>
       <c r="G12">
-        <v>0.0007768528513910777</v>
+        <v>0.002509619446701548</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.138898000454404</v>
+        <v>1.955525798044846</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.578647776464834</v>
+        <v>1.190492933551184</v>
       </c>
       <c r="L12">
-        <v>0.7754687512521912</v>
+        <v>0.3691384431745632</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.802326992770503</v>
+        <v>0.5792194320292481</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1088254974937968</v>
+        <v>0.1232529125032755</v>
       </c>
       <c r="E13">
-        <v>0.07501323526875758</v>
+        <v>0.06981210836023699</v>
       </c>
       <c r="F13">
-        <v>4.390741488224478</v>
+        <v>2.829614249310026</v>
       </c>
       <c r="G13">
-        <v>0.0007773757235147231</v>
+        <v>0.002509891849672917</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.131442098881536</v>
+        <v>1.953706572314701</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.556937667018985</v>
+        <v>1.185519120734796</v>
       </c>
       <c r="L13">
-        <v>0.7709902652399023</v>
+        <v>0.3681227136763709</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7877284470754944</v>
+        <v>0.5763824473901877</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1083442246645632</v>
+        <v>0.1230638587688375</v>
       </c>
       <c r="E14">
-        <v>0.07397660504085657</v>
+        <v>0.06957133989288344</v>
       </c>
       <c r="F14">
-        <v>4.32110915871192</v>
+        <v>2.813163004223611</v>
       </c>
       <c r="G14">
-        <v>0.0007790821490607387</v>
+        <v>0.002510784252101152</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.107227892915787</v>
+        <v>1.947785520762721</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.48637059773273</v>
+        <v>1.169314830426231</v>
       </c>
       <c r="L14">
-        <v>0.7564331391327244</v>
+        <v>0.3648153744401839</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7788144766609832</v>
+        <v>0.5746520958371661</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1080518129496824</v>
+        <v>0.1229481800524113</v>
       </c>
       <c r="E15">
-        <v>0.0733461776202553</v>
+        <v>0.06942363270443508</v>
       </c>
       <c r="F15">
-        <v>4.278665481464628</v>
+        <v>2.803106981997388</v>
       </c>
       <c r="G15">
-        <v>0.0007801283830369069</v>
+        <v>0.002511333979076991</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.092472275194552</v>
+        <v>1.944167792055566</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.443322196116696</v>
+        <v>1.159401806321227</v>
       </c>
       <c r="L15">
-        <v>0.7475527469614462</v>
+        <v>0.3627935064743326</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7281410941579054</v>
+        <v>0.5648494549523377</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1064107631484106</v>
+        <v>0.122287115879061</v>
       </c>
       <c r="E16">
-        <v>0.06979789368814338</v>
+        <v>0.06857360956203173</v>
       </c>
       <c r="F16">
-        <v>4.03846061229757</v>
+        <v>2.745798161259415</v>
       </c>
       <c r="G16">
-        <v>0.0007861415133360618</v>
+        <v>0.002514531926176074</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.009026622004541</v>
+        <v>1.923574870171095</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.199163598851385</v>
+        <v>1.1027858894102</v>
       </c>
       <c r="L16">
-        <v>0.6971882880181965</v>
+        <v>0.3512677236360844</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6973975485589108</v>
+        <v>0.5589371051873115</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1054330158397434</v>
+        <v>0.1218831886284377</v>
       </c>
       <c r="E17">
-        <v>0.0676733848645874</v>
+        <v>0.06804890066971936</v>
       </c>
       <c r="F17">
-        <v>3.89362606306355</v>
+        <v>2.710923617907753</v>
       </c>
       <c r="G17">
-        <v>0.0007898484293613617</v>
+        <v>0.002516536419444523</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.958769761334224</v>
+        <v>1.911065161753911</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.051473152426155</v>
+        <v>1.068223684126508</v>
       </c>
       <c r="L17">
-        <v>0.6667286251814204</v>
+        <v>0.3442510346197594</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6798323462950577</v>
+        <v>0.5555737479335789</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1048805649488997</v>
+        <v>0.1216514412739826</v>
       </c>
       <c r="E18">
-        <v>0.06646866358282821</v>
+        <v>0.06774588538564785</v>
       </c>
       <c r="F18">
-        <v>3.811182659034756</v>
+        <v>2.690968009077437</v>
       </c>
       <c r="G18">
-        <v>0.0007919880786142475</v>
+        <v>0.002517705069326997</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.930184488538401</v>
+        <v>1.903915057633412</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.96723108040166</v>
+        <v>1.048406372863752</v>
       </c>
       <c r="L18">
-        <v>0.6493577855729313</v>
+        <v>0.3402349963984932</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6739045209825463</v>
+        <v>0.5544413798386358</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1046951531389553</v>
+        <v>0.1215730742087899</v>
       </c>
       <c r="E19">
-        <v>0.06606355118089624</v>
+        <v>0.06764307847037188</v>
       </c>
       <c r="F19">
-        <v>3.783410764633629</v>
+        <v>2.684229075220628</v>
       </c>
       <c r="G19">
-        <v>0.0007927139012533662</v>
+        <v>0.002518103457816679</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.920559145366781</v>
+        <v>1.901501891365129</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.938823595956706</v>
+        <v>1.041707169738572</v>
       </c>
       <c r="L19">
-        <v>0.6435007824359502</v>
+        <v>0.3388786246634652</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7006578902424678</v>
+        <v>0.5595626289747599</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1055360558278693</v>
+        <v>0.1219261269738467</v>
       </c>
       <c r="E20">
-        <v>0.06789771583698112</v>
+        <v>0.06810488221895028</v>
       </c>
       <c r="F20">
-        <v>3.908953343538116</v>
+        <v>2.714625368777433</v>
       </c>
       <c r="G20">
-        <v>0.0007894530621368077</v>
+        <v>0.002516321411793206</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.964085967617493</v>
+        <v>1.912392164440092</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.06712064562916</v>
+        <v>1.071896467551881</v>
       </c>
       <c r="L20">
-        <v>0.6699554522789413</v>
+        <v>0.3449959248380026</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7920104942151625</v>
+        <v>0.5772142001663951</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1084850852046912</v>
+        <v>0.1231193629076728</v>
       </c>
       <c r="E21">
-        <v>0.0742801299349658</v>
+        <v>0.06964210713521446</v>
       </c>
       <c r="F21">
-        <v>4.341518074243567</v>
+        <v>2.817990787566345</v>
       </c>
       <c r="G21">
-        <v>0.0007785807278897215</v>
+        <v>0.00251052148516385</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.114324156287523</v>
+        <v>1.94952278246781</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.5070607842855</v>
+        <v>1.174071800801357</v>
       </c>
       <c r="L21">
-        <v>0.7607012868937773</v>
+        <v>0.3657859918118618</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8529476350479683</v>
+        <v>0.5890811482526601</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1105170424217476</v>
+        <v>0.1239046458992377</v>
       </c>
       <c r="E22">
-        <v>0.07864910708347672</v>
+        <v>0.07063643556256238</v>
       </c>
       <c r="F22">
-        <v>4.633358669230688</v>
+        <v>2.886477390333312</v>
       </c>
       <c r="G22">
-        <v>0.0007715222049999635</v>
+        <v>0.002506869969790396</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.215866552012216</v>
+        <v>1.974195950244635</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.802287548408628</v>
+        <v>1.241410732084489</v>
       </c>
       <c r="L22">
-        <v>0.8215992731661004</v>
+        <v>0.3795511240159897</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8203019120399517</v>
+        <v>0.5827173423069496</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1094221263421105</v>
+        <v>0.1234850156924097</v>
       </c>
       <c r="E23">
-        <v>0.07629685496053185</v>
+        <v>0.0701066653270157</v>
       </c>
       <c r="F23">
-        <v>4.476685591930163</v>
+        <v>2.84983902976748</v>
       </c>
       <c r="G23">
-        <v>0.0007752861928087551</v>
+        <v>0.002508806170404052</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.161338957395174</v>
+        <v>1.960990052561002</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.643940505973433</v>
+        <v>1.205418827769449</v>
       </c>
       <c r="L23">
-        <v>0.7889374805355089</v>
+        <v>0.3721880869854033</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6991835501316359</v>
+        <v>0.5592797183608411</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1054894415041048</v>
+        <v>0.1219067130689311</v>
       </c>
       <c r="E24">
-        <v>0.06779624428862441</v>
+        <v>0.06807957718075563</v>
       </c>
       <c r="F24">
-        <v>3.90202132922164</v>
+        <v>2.71295151382725</v>
       </c>
       <c r="G24">
-        <v>0.0007896317810122736</v>
+        <v>0.002516418566135238</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.961681556434186</v>
+        <v>1.911792096080987</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.06004435094431</v>
+        <v>1.070235837310804</v>
       </c>
       <c r="L24">
-        <v>0.6684961679192725</v>
+        <v>0.3446591040775075</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5729534607596065</v>
+        <v>0.5354240267756438</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1016198503137389</v>
+        <v>0.120226305766252</v>
       </c>
       <c r="E25">
-        <v>0.05926862132037236</v>
+        <v>0.06584622919717198</v>
       </c>
       <c r="F25">
-        <v>3.314456703343637</v>
+        <v>2.569238531678337</v>
       </c>
       <c r="G25">
-        <v>0.0008054023973219564</v>
+        <v>0.002525231273894821</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.75837835950756</v>
+        <v>1.860447636629829</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.456585493645633</v>
+        <v>0.9267816492443899</v>
       </c>
       <c r="L25">
-        <v>0.5441514476179776</v>
+        <v>0.3157197166221835</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_54/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5190871431972823</v>
+        <v>0.4829423604848841</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1190062623558674</v>
+        <v>0.09901808678370827</v>
       </c>
       <c r="E2">
-        <v>0.06415857793147062</v>
+        <v>0.05335181896804819</v>
       </c>
       <c r="F2">
-        <v>2.466724915107989</v>
+        <v>2.902953019391589</v>
       </c>
       <c r="G2">
-        <v>0.002532243446708527</v>
+        <v>0.0008173611473712497</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.824092820839297</v>
+        <v>1.616789003517241</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8231104967113367</v>
+        <v>2.028529816130856</v>
       </c>
       <c r="L2">
-        <v>0.2950475121658513</v>
+        <v>0.4561706163020034</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5087830456629234</v>
+        <v>0.4233968009404663</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.118189322361637</v>
+        <v>0.09737839885328015</v>
       </c>
       <c r="E3">
-        <v>0.06298639832995256</v>
+        <v>0.04949110653460664</v>
       </c>
       <c r="F3">
-        <v>2.399267520623908</v>
+        <v>2.634413976378667</v>
       </c>
       <c r="G3">
-        <v>0.002537325230754242</v>
+        <v>0.0008257213822542311</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.800343700363314</v>
+        <v>1.524913617246966</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7540332428670524</v>
+        <v>1.745881203954298</v>
       </c>
       <c r="L3">
-        <v>0.2814279673159206</v>
+        <v>0.398255981505983</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.502835730117468</v>
+        <v>0.3874448521835205</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1176923251201174</v>
+        <v>0.09642367213644576</v>
       </c>
       <c r="E4">
-        <v>0.06225217663774796</v>
+        <v>0.04717283381211246</v>
       </c>
       <c r="F4">
-        <v>2.358830509865385</v>
+        <v>2.473809580717074</v>
       </c>
       <c r="G4">
-        <v>0.002540609031785225</v>
+        <v>0.0008309921644938933</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.786195376329331</v>
+        <v>1.470230721445077</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7121914339318209</v>
+        <v>1.575231421457545</v>
       </c>
       <c r="L4">
-        <v>0.273256141499445</v>
+        <v>0.3633896274179733</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5005077799678048</v>
+        <v>0.372932718319106</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1174909165794986</v>
+        <v>0.09604649922797748</v>
       </c>
       <c r="E5">
-        <v>0.06194926451315119</v>
+        <v>0.04623843439019737</v>
       </c>
       <c r="F5">
-        <v>2.342597567824996</v>
+        <v>2.409327449880038</v>
       </c>
       <c r="G5">
-        <v>0.002541988477594099</v>
+        <v>0.0008331761886279101</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.780538335155541</v>
+        <v>1.448343286567059</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.695283139665861</v>
+        <v>1.506314799307177</v>
       </c>
       <c r="L5">
-        <v>0.2699738035559847</v>
+        <v>0.3493354302750049</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5001270078269755</v>
+        <v>0.3705309524767841</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1174575395289281</v>
+        <v>0.09598455450754173</v>
       </c>
       <c r="E6">
-        <v>0.06189874017349872</v>
+        <v>0.04608382426971858</v>
       </c>
       <c r="F6">
-        <v>2.339916882555968</v>
+        <v>2.398675480983158</v>
       </c>
       <c r="G6">
-        <v>0.002542220030228547</v>
+        <v>0.0008335410699342722</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.779605525830796</v>
+        <v>1.444731758703895</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6924841065041107</v>
+        <v>1.494906089268881</v>
       </c>
       <c r="L6">
-        <v>0.2694316522549229</v>
+        <v>0.3470104882575527</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5028039470807215</v>
+        <v>0.3872485939106696</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.117689604360919</v>
+        <v>0.09641853884343732</v>
       </c>
       <c r="E7">
-        <v>0.06224810656772028</v>
+        <v>0.04716019391843318</v>
       </c>
       <c r="F7">
-        <v>2.358610594825691</v>
+        <v>2.472936183004791</v>
       </c>
       <c r="G7">
-        <v>0.002540627468184863</v>
+        <v>0.0008310214707130115</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.786118644857268</v>
+        <v>1.469933984058343</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7119628270573628</v>
+        <v>1.574299590271693</v>
       </c>
       <c r="L7">
-        <v>0.2732116816603423</v>
+        <v>0.3631994891678687</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5154556598492093</v>
+        <v>0.4622754250450072</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1187236029720822</v>
+        <v>0.09844116484971011</v>
       </c>
       <c r="E8">
-        <v>0.06375738006666509</v>
+        <v>0.05200801681484712</v>
       </c>
       <c r="F8">
-        <v>2.443260847141062</v>
+        <v>2.809403016546071</v>
       </c>
       <c r="G8">
-        <v>0.00253396178274967</v>
+        <v>0.0008202161735274594</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.815813763245146</v>
+        <v>1.584727425139562</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7991731937729014</v>
+        <v>1.930405659396939</v>
       </c>
       <c r="L8">
-        <v>0.2903118089038088</v>
+        <v>0.4360450055209668</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5432692788095039</v>
+        <v>0.6149652239201941</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1207895624821447</v>
+        <v>0.102880426797114</v>
       </c>
       <c r="E9">
-        <v>0.06660505690919472</v>
+        <v>0.06207353604670374</v>
       </c>
       <c r="F9">
-        <v>2.617129846088716</v>
+        <v>3.508688286185958</v>
       </c>
       <c r="G9">
-        <v>0.002522181797816957</v>
+        <v>0.000800041816254606</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.877515772940654</v>
+        <v>1.82546255464149</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9747959200570335</v>
+        <v>2.656941815586691</v>
       </c>
       <c r="L9">
-        <v>0.3253683676232555</v>
+        <v>0.5854070418527471</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5655291410431289</v>
+        <v>0.7316656856400527</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1223332863957936</v>
+        <v>0.1065237271983719</v>
       </c>
       <c r="E10">
-        <v>0.0686333193248263</v>
+        <v>0.07004278942086195</v>
       </c>
       <c r="F10">
-        <v>2.749791626285372</v>
+        <v>4.055108656616113</v>
       </c>
       <c r="G10">
-        <v>0.002514305326397243</v>
+        <v>0.0007857194853038498</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.925008446808476</v>
+        <v>2.014806374531318</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.106738105527029</v>
+        <v>3.216116221650736</v>
       </c>
       <c r="L10">
-        <v>0.3520710614844518</v>
+        <v>0.7006849527180066</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5760511131559554</v>
+        <v>0.7860221766526649</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1230417302357978</v>
+        <v>0.1082881669093183</v>
       </c>
       <c r="E11">
-        <v>0.06954310741844871</v>
+        <v>0.07385578321438047</v>
       </c>
       <c r="F11">
-        <v>2.811238749886883</v>
+        <v>4.312980425753437</v>
       </c>
       <c r="G11">
-        <v>0.002510889192652278</v>
+        <v>0.0007792821598410955</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.947093161728063</v>
+        <v>2.104401690487336</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.167418412017696</v>
+        <v>3.478128127143009</v>
       </c>
       <c r="L11">
-        <v>0.3644284958955097</v>
+        <v>0.754732811023473</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5800922929035153</v>
+        <v>0.8068148106893034</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1233109318220471</v>
+        <v>0.1089740412080431</v>
       </c>
       <c r="E12">
-        <v>0.06988584507777951</v>
+        <v>0.07533296412097279</v>
       </c>
       <c r="F12">
-        <v>2.834667088191736</v>
+        <v>4.412177856922114</v>
       </c>
       <c r="G12">
-        <v>0.002509619446701548</v>
+        <v>0.0007768528514660034</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.955525798044846</v>
+        <v>2.138898000454418</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.190492933551184</v>
+        <v>3.57864777646472</v>
       </c>
       <c r="L12">
-        <v>0.3691384431745632</v>
+        <v>0.7754687512521912</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5792194320292481</v>
+        <v>0.8023269927703893</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1232529125032755</v>
+        <v>0.1088254974935836</v>
       </c>
       <c r="E13">
-        <v>0.06981210836023699</v>
+        <v>0.07501323526869896</v>
       </c>
       <c r="F13">
-        <v>2.829614249310026</v>
+        <v>4.39074148822445</v>
       </c>
       <c r="G13">
-        <v>0.002509891849672917</v>
+        <v>0.0007773757236541122</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.953706572314701</v>
+        <v>2.131442098881521</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.185519120734796</v>
+        <v>3.556937667018929</v>
       </c>
       <c r="L13">
-        <v>0.3681227136763709</v>
+        <v>0.7709902652399592</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5763824473901877</v>
+        <v>0.7877284470755512</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1230638587688375</v>
+        <v>0.108344224664684</v>
       </c>
       <c r="E14">
-        <v>0.06957133989288344</v>
+        <v>0.07397660504088499</v>
       </c>
       <c r="F14">
-        <v>2.813163004223611</v>
+        <v>4.321109158711948</v>
       </c>
       <c r="G14">
-        <v>0.002510784252101152</v>
+        <v>0.0007790821491088748</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.947785520762721</v>
+        <v>2.10722789291583</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.169314830426231</v>
+        <v>3.48637059773273</v>
       </c>
       <c r="L14">
-        <v>0.3648153744401839</v>
+        <v>0.7564331391328665</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5746520958371661</v>
+        <v>0.7788144766610685</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1229481800524113</v>
+        <v>0.1080518129496895</v>
       </c>
       <c r="E15">
-        <v>0.06942363270443508</v>
+        <v>0.0733461776202482</v>
       </c>
       <c r="F15">
-        <v>2.803106981997388</v>
+        <v>4.278665481464628</v>
       </c>
       <c r="G15">
-        <v>0.002511333979076991</v>
+        <v>0.0007801283830158127</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.944167792055566</v>
+        <v>2.092472275194581</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.159401806321227</v>
+        <v>3.443322196116867</v>
       </c>
       <c r="L15">
-        <v>0.3627935064743326</v>
+        <v>0.7475527469614462</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5648494549523377</v>
+        <v>0.7281410941580475</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.122287115879061</v>
+        <v>0.1064107631483822</v>
       </c>
       <c r="E16">
-        <v>0.06857360956203173</v>
+        <v>0.06979789368810252</v>
       </c>
       <c r="F16">
-        <v>2.745798161259415</v>
+        <v>4.038460612297627</v>
       </c>
       <c r="G16">
-        <v>0.002514531926176074</v>
+        <v>0.0007861415134641676</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.923574870171095</v>
+        <v>2.009026622004569</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.1027858894102</v>
+        <v>3.199163598851271</v>
       </c>
       <c r="L16">
-        <v>0.3512677236360844</v>
+        <v>0.6971882880181113</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5589371051873115</v>
+        <v>0.6973975485589108</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1218831886284377</v>
+        <v>0.1054330158397434</v>
       </c>
       <c r="E17">
-        <v>0.06804890066971936</v>
+        <v>0.06767338486461583</v>
       </c>
       <c r="F17">
-        <v>2.710923617907753</v>
+        <v>3.89362606306355</v>
       </c>
       <c r="G17">
-        <v>0.002516536419444523</v>
+        <v>0.0007898484293615624</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.911065161753911</v>
+        <v>1.95876976133421</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.068223684126508</v>
+        <v>3.051473152426098</v>
       </c>
       <c r="L17">
-        <v>0.3442510346197594</v>
+        <v>0.6667286251812925</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5555737479335789</v>
+        <v>0.6798323462951146</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1216514412739826</v>
+        <v>0.104880564948644</v>
       </c>
       <c r="E18">
-        <v>0.06774588538564785</v>
+        <v>0.06646866358285308</v>
       </c>
       <c r="F18">
-        <v>2.690968009077437</v>
+        <v>3.811182659034813</v>
       </c>
       <c r="G18">
-        <v>0.002517705069326997</v>
+        <v>0.0007919880786093095</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.903915057633412</v>
+        <v>1.930184488538416</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.048406372863752</v>
+        <v>2.967231080401518</v>
       </c>
       <c r="L18">
-        <v>0.3402349963984932</v>
+        <v>0.6493577855729313</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5544413798386358</v>
+        <v>0.6739045209825179</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1215730742087899</v>
+        <v>0.1046951531385076</v>
       </c>
       <c r="E19">
-        <v>0.06764307847037188</v>
+        <v>0.06606355118088558</v>
       </c>
       <c r="F19">
-        <v>2.684229075220628</v>
+        <v>3.783410764633629</v>
       </c>
       <c r="G19">
-        <v>0.002518103457816679</v>
+        <v>0.0007927139012521401</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.901501891365129</v>
+        <v>1.920559145366795</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.041707169738572</v>
+        <v>2.938823595956592</v>
       </c>
       <c r="L19">
-        <v>0.3388786246634652</v>
+        <v>0.6435007824361065</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5595626289747599</v>
+        <v>0.7006578902425247</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1219261269738467</v>
+        <v>0.1055360558281109</v>
       </c>
       <c r="E20">
-        <v>0.06810488221895028</v>
+        <v>0.06789771583700777</v>
       </c>
       <c r="F20">
-        <v>2.714625368777433</v>
+        <v>3.908953343538116</v>
       </c>
       <c r="G20">
-        <v>0.002516321411793206</v>
+        <v>0.000789453062021606</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.912392164440092</v>
+        <v>1.964085967617507</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.071896467551881</v>
+        <v>3.067120645629046</v>
       </c>
       <c r="L20">
-        <v>0.3449959248380026</v>
+        <v>0.6699554522788418</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5772142001663951</v>
+        <v>0.7920104942152761</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1231193629076728</v>
+        <v>0.1084850852043147</v>
       </c>
       <c r="E21">
-        <v>0.06964210713521446</v>
+        <v>0.07428012993496935</v>
       </c>
       <c r="F21">
-        <v>2.817990787566345</v>
+        <v>4.341518074243538</v>
       </c>
       <c r="G21">
-        <v>0.00251052148516385</v>
+        <v>0.0007785807280465439</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.94952278246781</v>
+        <v>2.114324156287509</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.174071800801357</v>
+        <v>3.507060784285557</v>
       </c>
       <c r="L21">
-        <v>0.3657859918118618</v>
+        <v>0.7607012868939194</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5890811482526601</v>
+        <v>0.8529476350479683</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1239046458992377</v>
+        <v>0.1105170424217192</v>
       </c>
       <c r="E22">
-        <v>0.07063643556256238</v>
+        <v>0.07864910708354778</v>
       </c>
       <c r="F22">
-        <v>2.886477390333312</v>
+        <v>4.633358669230745</v>
       </c>
       <c r="G22">
-        <v>0.002506869969790396</v>
+        <v>0.000771522204962616</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.974195950244635</v>
+        <v>2.215866552012201</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.241410732084489</v>
+        <v>3.802287548408685</v>
       </c>
       <c r="L22">
-        <v>0.3795511240159897</v>
+        <v>0.8215992731659867</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5827173423069496</v>
+        <v>0.8203019120400654</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1234850156924097</v>
+        <v>0.1094221263423236</v>
       </c>
       <c r="E23">
-        <v>0.0701066653270157</v>
+        <v>0.07629685496053185</v>
       </c>
       <c r="F23">
-        <v>2.84983902976748</v>
+        <v>4.476685591930192</v>
       </c>
       <c r="G23">
-        <v>0.002508806170404052</v>
+        <v>0.0007752861927515416</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.960990052561002</v>
+        <v>2.161338957395188</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.205418827769449</v>
+        <v>3.643940505973319</v>
       </c>
       <c r="L23">
-        <v>0.3721880869854033</v>
+        <v>0.788937480535651</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5592797183608411</v>
+        <v>0.6991835501317496</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1219067130689311</v>
+        <v>0.1054894415038774</v>
       </c>
       <c r="E24">
-        <v>0.06807957718075563</v>
+        <v>0.06779624428865638</v>
       </c>
       <c r="F24">
-        <v>2.71295151382725</v>
+        <v>3.90202132922164</v>
       </c>
       <c r="G24">
-        <v>0.002516418566135238</v>
+        <v>0.0007896317808977296</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.911792096080987</v>
+        <v>1.961681556434186</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.070235837310804</v>
+        <v>3.060044350944338</v>
       </c>
       <c r="L24">
-        <v>0.3446591040775075</v>
+        <v>0.6684961679192014</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5354240267756438</v>
+        <v>0.5729534607596634</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.120226305766252</v>
+        <v>0.1016198503137176</v>
       </c>
       <c r="E25">
-        <v>0.06584622919717198</v>
+        <v>0.05926862132037414</v>
       </c>
       <c r="F25">
-        <v>2.569238531678337</v>
+        <v>3.314456703343609</v>
       </c>
       <c r="G25">
-        <v>0.002525231273894821</v>
+        <v>0.0008054023973781323</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.860447636629829</v>
+        <v>1.758378359507589</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9267816492443899</v>
+        <v>2.456585493645662</v>
       </c>
       <c r="L25">
-        <v>0.3157197166221835</v>
+        <v>0.5441514476180487</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4829423604848841</v>
+        <v>0.2656639537415941</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.09901808678370827</v>
+        <v>0.07059348418113132</v>
       </c>
       <c r="E2">
-        <v>0.05335181896804819</v>
+        <v>0.3374464605295913</v>
       </c>
       <c r="F2">
-        <v>2.902953019391589</v>
+        <v>0.3426480507212304</v>
       </c>
       <c r="G2">
-        <v>0.0008173611473712497</v>
+        <v>0.236678547796437</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001027656667648369</v>
       </c>
       <c r="I2">
-        <v>1.616789003517241</v>
+        <v>0.007224565600095545</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2144194520281033</v>
       </c>
       <c r="K2">
-        <v>2.028529816130856</v>
+        <v>0.2676230283705467</v>
       </c>
       <c r="L2">
-        <v>0.4561706163020034</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.905428377788894</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.7515870209258324</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.9005227083696496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4233968009404663</v>
+        <v>0.2311657323408411</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09737839885328015</v>
+        <v>0.06222777261878321</v>
       </c>
       <c r="E3">
-        <v>0.04949110653460664</v>
+        <v>0.3022758993847248</v>
       </c>
       <c r="F3">
-        <v>2.634413976378667</v>
+        <v>0.3198245840958478</v>
       </c>
       <c r="G3">
-        <v>0.0008257213822542311</v>
+        <v>0.2224833006114864</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0003723620125819505</v>
       </c>
       <c r="I3">
-        <v>1.524913617246966</v>
+        <v>0.00849571709461916</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2121546417478086</v>
       </c>
       <c r="K3">
-        <v>1.745881203954298</v>
+        <v>0.2786852335001231</v>
       </c>
       <c r="L3">
-        <v>0.398255981505983</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.687191059742759</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.6545028602775034</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.8654021950674462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3874448521835205</v>
+        <v>0.209585072739074</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.09642367213644576</v>
+        <v>0.05709614815646802</v>
       </c>
       <c r="E4">
-        <v>0.04717283381211246</v>
+        <v>0.2805786773438754</v>
       </c>
       <c r="F4">
-        <v>2.473809580717074</v>
+        <v>0.3062400175145186</v>
       </c>
       <c r="G4">
-        <v>0.0008309921644938933</v>
+        <v>0.2141176418807831</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0001249848186239966</v>
       </c>
       <c r="I4">
-        <v>1.470230721445077</v>
+        <v>0.009391092609965401</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2110127780603221</v>
       </c>
       <c r="K4">
-        <v>1.575231421457545</v>
+        <v>0.2857859354655568</v>
       </c>
       <c r="L4">
-        <v>0.3633896274179733</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.553737315316482</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.5950486506058965</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.8450940118652568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.372932718319106</v>
+        <v>0.1998577735100753</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.09604649922797748</v>
+        <v>0.05505617109338345</v>
       </c>
       <c r="E5">
-        <v>0.04623843439019737</v>
+        <v>0.2715205606444897</v>
       </c>
       <c r="F5">
-        <v>2.409327449880038</v>
+        <v>0.3004900038154545</v>
       </c>
       <c r="G5">
-        <v>0.0008331761886279101</v>
+        <v>0.2104863871530966</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6.081095709919992E-05</v>
       </c>
       <c r="I5">
-        <v>1.448343286567059</v>
+        <v>0.009869693120077461</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2104424799600508</v>
       </c>
       <c r="K5">
-        <v>1.506314799307177</v>
+        <v>0.2887193406668693</v>
       </c>
       <c r="L5">
-        <v>0.3493354302750049</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.501664257045519</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.5712656914431804</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.8361256686532812</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3705309524767841</v>
+        <v>0.1972168655041173</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.09598455450754173</v>
+        <v>0.05477930496022765</v>
       </c>
       <c r="E6">
-        <v>0.04608382426971858</v>
+        <v>0.269784409029441</v>
       </c>
       <c r="F6">
-        <v>2.398675480983158</v>
+        <v>0.2991551986723806</v>
       </c>
       <c r="G6">
-        <v>0.0008335410699342722</v>
+        <v>0.2095160078708673</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>5.227300905086274E-05</v>
       </c>
       <c r="I6">
-        <v>1.444731758703895</v>
+        <v>0.01006285348446312</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.210149593045557</v>
       </c>
       <c r="K6">
-        <v>1.494906089268881</v>
+        <v>0.2891716679738647</v>
       </c>
       <c r="L6">
-        <v>0.3470104882575527</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.49570842900917</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.5678236263893979</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.8334426351276818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3872485939106696</v>
+        <v>0.2066565236885083</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.09641853884343732</v>
+        <v>0.0572380323121422</v>
       </c>
       <c r="E7">
-        <v>0.04716019391843318</v>
+        <v>0.2798270504905176</v>
       </c>
       <c r="F7">
-        <v>2.472936183004791</v>
+        <v>0.3051091337109995</v>
       </c>
       <c r="G7">
-        <v>0.0008310214707130115</v>
+        <v>0.213052980618329</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0001238463580037763</v>
       </c>
       <c r="I7">
-        <v>1.469933984058343</v>
+        <v>0.009687266760851188</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2104555272817734</v>
       </c>
       <c r="K7">
-        <v>1.574299590271693</v>
+        <v>0.2857253056891143</v>
       </c>
       <c r="L7">
-        <v>0.3631994891678687</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.560386687603312</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.5961111137098882</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.8416695844465067</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4622754250450072</v>
+        <v>0.2501138812755528</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.09844116484971011</v>
+        <v>0.06793411048482767</v>
       </c>
       <c r="E8">
-        <v>0.05200801681484712</v>
+        <v>0.3245043358627555</v>
       </c>
       <c r="F8">
-        <v>2.809403016546071</v>
+        <v>0.3332987801017495</v>
       </c>
       <c r="G8">
-        <v>0.0008202161735274594</v>
+        <v>0.2303716276273349</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0007678300677991245</v>
       </c>
       <c r="I8">
-        <v>1.584727425139562</v>
+        <v>0.007989165082381788</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2128664819757446</v>
       </c>
       <c r="K8">
-        <v>1.930405659396939</v>
+        <v>0.2712904752857535</v>
       </c>
       <c r="L8">
-        <v>0.4360450055209668</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.839893051686659</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.7199216821160803</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.88380458862963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6149652239201941</v>
+        <v>0.337138455754797</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.102880426797114</v>
+        <v>0.08866595282160006</v>
       </c>
       <c r="E9">
-        <v>0.06207353604670374</v>
+        <v>0.4125479863718695</v>
       </c>
       <c r="F9">
-        <v>3.508688286185958</v>
+        <v>0.3941652574048291</v>
       </c>
       <c r="G9">
-        <v>0.000800041816254606</v>
+        <v>0.2691910460058722</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.003368432338178295</v>
       </c>
       <c r="I9">
-        <v>1.82546255464149</v>
+        <v>0.005165208041002067</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2206553367046951</v>
       </c>
       <c r="K9">
-        <v>2.656941815586691</v>
+        <v>0.2456094871652503</v>
       </c>
       <c r="L9">
-        <v>0.5854070418527471</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>2.3797438735848</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.9617689652161232</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.9830788207114978</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7316656856400527</v>
+        <v>0.4003443366820392</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1065237271983719</v>
+        <v>0.1052159094303988</v>
       </c>
       <c r="E10">
-        <v>0.07004278942086195</v>
+        <v>0.4462704438390901</v>
       </c>
       <c r="F10">
-        <v>4.055108656616113</v>
+        <v>0.4347445076182908</v>
       </c>
       <c r="G10">
-        <v>0.0007857194853038498</v>
+        <v>0.2934008301765516</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.00613135670919851</v>
       </c>
       <c r="I10">
-        <v>2.014806374531318</v>
+        <v>0.00389179010782037</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2244888531625975</v>
       </c>
       <c r="K10">
-        <v>3.216116221650736</v>
+        <v>0.2285263036153369</v>
       </c>
       <c r="L10">
-        <v>0.7006849527180066</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.79499156142677</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.107829456465808</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.042883632898679</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7860221766526649</v>
+        <v>0.4492942787169909</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1082881669093183</v>
+        <v>0.1236440165551187</v>
       </c>
       <c r="E11">
-        <v>0.07385578321438047</v>
+        <v>0.2433081886649475</v>
       </c>
       <c r="F11">
-        <v>4.312980425753437</v>
+        <v>0.398216084232871</v>
       </c>
       <c r="G11">
-        <v>0.0007792821598410955</v>
+        <v>0.2525666071091948</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02380944932819773</v>
       </c>
       <c r="I11">
-        <v>2.104401690487336</v>
+        <v>0.004046605823337934</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1998667260168929</v>
       </c>
       <c r="K11">
-        <v>3.478128127143009</v>
+        <v>0.2258227059451468</v>
       </c>
       <c r="L11">
-        <v>0.754732811023473</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>3.093956777167421</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.8995158976780075</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.9049381465865736</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8068148106893034</v>
+        <v>0.4835252844831928</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1089740412080431</v>
+        <v>0.1361245435819143</v>
       </c>
       <c r="E12">
-        <v>0.07533296412097279</v>
+        <v>0.1280277768009519</v>
       </c>
       <c r="F12">
-        <v>4.412177856922114</v>
+        <v>0.3613644877074904</v>
       </c>
       <c r="G12">
-        <v>0.0007768528514660034</v>
+        <v>0.2166516479018412</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06167150037026659</v>
       </c>
       <c r="I12">
-        <v>2.138898000454418</v>
+        <v>0.003928230534868682</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1798932873330301</v>
       </c>
       <c r="K12">
-        <v>3.57864777646472</v>
+        <v>0.2307438936287038</v>
       </c>
       <c r="L12">
-        <v>0.7754687512521912</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>3.251102778294722</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.7120315153935337</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.7870394571188797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8023269927703893</v>
+        <v>0.5036433731968657</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1088254974935836</v>
+        <v>0.1448811462234829</v>
       </c>
       <c r="E13">
-        <v>0.07501323526869896</v>
+        <v>0.07166861543491798</v>
       </c>
       <c r="F13">
-        <v>4.39074148822445</v>
+        <v>0.3204093530981709</v>
       </c>
       <c r="G13">
-        <v>0.0007773757236541122</v>
+        <v>0.1807833230001137</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1165809386948382</v>
       </c>
       <c r="I13">
-        <v>2.131442098881521</v>
+        <v>0.003988783366308368</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1614098887485511</v>
       </c>
       <c r="K13">
-        <v>3.556937667018929</v>
+        <v>0.2413090914175893</v>
       </c>
       <c r="L13">
-        <v>0.7709902652399592</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>3.3183260599032</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5329718564068244</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.6722744805975083</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7877284470755512</v>
+        <v>0.5103665610554629</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.108344224664684</v>
+        <v>0.1493964212370571</v>
       </c>
       <c r="E14">
-        <v>0.07397660504088499</v>
+        <v>0.06680655398584712</v>
       </c>
       <c r="F14">
-        <v>4.321109158711948</v>
+        <v>0.289996053576111</v>
       </c>
       <c r="G14">
-        <v>0.0007790821491088748</v>
+        <v>0.1559481518399437</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1653664536525241</v>
       </c>
       <c r="I14">
-        <v>2.10722789291583</v>
+        <v>0.004200454223116878</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1492133982050206</v>
       </c>
       <c r="K14">
-        <v>3.48637059773273</v>
+        <v>0.2517872790367299</v>
       </c>
       <c r="L14">
-        <v>0.7564331391328665</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>3.32706083198849</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.4157146415299167</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.5940318052827536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7788144766610685</v>
+        <v>0.5074138293976489</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1080518129496895</v>
+        <v>0.1496737119641836</v>
       </c>
       <c r="E15">
-        <v>0.0733461776202482</v>
+        <v>0.07009084715365077</v>
       </c>
       <c r="F15">
-        <v>4.278665481464628</v>
+        <v>0.2813064866040875</v>
       </c>
       <c r="G15">
-        <v>0.0007801283830158127</v>
+        <v>0.1493896785392934</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.177671844246774</v>
       </c>
       <c r="I15">
-        <v>2.092472275194581</v>
+        <v>0.004421682210443478</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.146313924107055</v>
       </c>
       <c r="K15">
-        <v>3.443322196116867</v>
+        <v>0.255413486619279</v>
       </c>
       <c r="L15">
-        <v>0.7475527469614462</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>3.312558830308205</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.3868222843560218</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.574024230583575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7281410941580475</v>
+        <v>0.4735340285149618</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1064107631483822</v>
+        <v>0.1405200480288045</v>
       </c>
       <c r="E16">
-        <v>0.06979789368810252</v>
+        <v>0.06856918459156347</v>
       </c>
       <c r="F16">
-        <v>4.038460612297627</v>
+        <v>0.2717094644974907</v>
       </c>
       <c r="G16">
-        <v>0.0007861415134641676</v>
+        <v>0.1458282689769206</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1640512254411846</v>
       </c>
       <c r="I16">
-        <v>2.009026622004569</v>
+        <v>0.005071483014173594</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1480036391708737</v>
       </c>
       <c r="K16">
-        <v>3.199163598851271</v>
+        <v>0.2593964078386151</v>
       </c>
       <c r="L16">
-        <v>0.6971882880181113</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>3.121008601351207</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.366914259698234</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.5698220272475538</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6973975485589108</v>
+        <v>0.4439480635500246</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1054330158397434</v>
+        <v>0.1311264020313985</v>
       </c>
       <c r="E17">
-        <v>0.06767338486461583</v>
+        <v>0.06426116001864735</v>
       </c>
       <c r="F17">
-        <v>3.89362606306355</v>
+        <v>0.280411888097845</v>
       </c>
       <c r="G17">
-        <v>0.0007898484293615624</v>
+        <v>0.1560898254193077</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.125870406936528</v>
       </c>
       <c r="I17">
-        <v>1.95876976133421</v>
+        <v>0.005496339272489159</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1557374412371928</v>
       </c>
       <c r="K17">
-        <v>3.051473152426098</v>
+        <v>0.2568330482963592</v>
       </c>
       <c r="L17">
-        <v>0.6667286251812925</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2.970331125514463</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4111048700286872</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.6076529641647568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6798323462951146</v>
+        <v>0.4179616575423353</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.104880564948644</v>
+        <v>0.1205482918094418</v>
       </c>
       <c r="E18">
-        <v>0.06646866358285308</v>
+        <v>0.08698938695228087</v>
       </c>
       <c r="F18">
-        <v>3.811182659034813</v>
+        <v>0.3071314614265077</v>
       </c>
       <c r="G18">
-        <v>0.0007919880786093095</v>
+        <v>0.1811648787620967</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07313989321041703</v>
       </c>
       <c r="I18">
-        <v>1.930184488538416</v>
+        <v>0.005428772116072622</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1703369827198102</v>
       </c>
       <c r="K18">
-        <v>2.967231080401518</v>
+        <v>0.24933223218056</v>
       </c>
       <c r="L18">
-        <v>0.6493577855729313</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.83213200880212</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.5257414561070419</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.6913182616277709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6739045209825179</v>
+        <v>0.3915814499780055</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1046951531385076</v>
+        <v>0.1105271798278125</v>
       </c>
       <c r="E19">
-        <v>0.06606355118088558</v>
+        <v>0.1744730291802092</v>
       </c>
       <c r="F19">
-        <v>3.783410764633629</v>
+        <v>0.3459425712292656</v>
       </c>
       <c r="G19">
-        <v>0.0007927139012521401</v>
+        <v>0.2168394610218201</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02863294061648958</v>
       </c>
       <c r="I19">
-        <v>1.920559145366795</v>
+        <v>0.005537962043754341</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1893900254471035</v>
       </c>
       <c r="K19">
-        <v>2.938823595956592</v>
+        <v>0.2423530425402127</v>
       </c>
       <c r="L19">
-        <v>0.6435007824361065</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.731620043061696</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.7083605589693533</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.8068330219849287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7006578902425247</v>
+        <v>0.375072695783274</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1055360558281109</v>
+        <v>0.1014575973090217</v>
       </c>
       <c r="E20">
-        <v>0.06789771583700777</v>
+        <v>0.434213223229726</v>
       </c>
       <c r="F20">
-        <v>3.908953343538116</v>
+        <v>0.4204154556933517</v>
       </c>
       <c r="G20">
-        <v>0.000789453062021606</v>
+        <v>0.283545366766063</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.005312329560455353</v>
       </c>
       <c r="I20">
-        <v>1.964085967617507</v>
+        <v>0.005059063610042713</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2216075733158007</v>
       </c>
       <c r="K20">
-        <v>3.067120645629046</v>
+        <v>0.2331193221387329</v>
       </c>
       <c r="L20">
-        <v>0.6699554522788418</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2.709893836053112</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.072391696926495</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.015842564929841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7920104942152761</v>
+        <v>0.4204216321711698</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1084850852043147</v>
+        <v>0.1122890989502423</v>
       </c>
       <c r="E21">
-        <v>0.07428012993496935</v>
+        <v>0.5074521248733461</v>
       </c>
       <c r="F21">
-        <v>4.341518074243538</v>
+        <v>0.4630593990215885</v>
       </c>
       <c r="G21">
-        <v>0.0007785807280465439</v>
+        <v>0.3130344613592655</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.007983823042862465</v>
       </c>
       <c r="I21">
-        <v>2.114324156287509</v>
+        <v>0.004073013633633771</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2301830419297914</v>
       </c>
       <c r="K21">
-        <v>3.507060784285557</v>
+        <v>0.220440877246399</v>
       </c>
       <c r="L21">
-        <v>0.7607012868939194</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>3.008749374253966</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.236315225336384</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.096657022563761</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8529476350479683</v>
+        <v>0.4547490945605261</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1105170424217192</v>
+        <v>0.1197542791993129</v>
       </c>
       <c r="E22">
-        <v>0.07864910708354778</v>
+        <v>0.5406896030460331</v>
       </c>
       <c r="F22">
-        <v>4.633358669230745</v>
+        <v>0.489680172926235</v>
       </c>
       <c r="G22">
-        <v>0.000771522204962616</v>
+        <v>0.3310416123374011</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.009885863252587839</v>
       </c>
       <c r="I22">
-        <v>2.215866552012201</v>
+        <v>0.003226269767844236</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2352220105001379</v>
       </c>
       <c r="K22">
-        <v>3.802287548408685</v>
+        <v>0.2124549421990602</v>
       </c>
       <c r="L22">
-        <v>0.8215992731659867</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>3.200700569547337</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.324828106546619</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.145597458680498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8203019120400654</v>
+        <v>0.4398428211089254</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1094221263423236</v>
+        <v>0.115559945514434</v>
       </c>
       <c r="E23">
-        <v>0.07629685496053185</v>
+        <v>0.5236956487596345</v>
       </c>
       <c r="F23">
-        <v>4.476685591930192</v>
+        <v>0.4766217584748986</v>
       </c>
       <c r="G23">
-        <v>0.0007752861927515416</v>
+        <v>0.322540960207192</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.008848945449419304</v>
       </c>
       <c r="I23">
-        <v>2.161338957395188</v>
+        <v>0.003333573721110206</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2331192322650111</v>
       </c>
       <c r="K23">
-        <v>3.643940505973319</v>
+        <v>0.2165825926287912</v>
       </c>
       <c r="L23">
-        <v>0.788937480535651</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>3.089094146139843</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.275862046891476</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.123058283120912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6991835501317496</v>
+        <v>0.3772983592727428</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1054894415038774</v>
+        <v>0.1000484290168799</v>
       </c>
       <c r="E24">
-        <v>0.06779624428865638</v>
+        <v>0.458201070613363</v>
       </c>
       <c r="F24">
-        <v>3.90202132922164</v>
+        <v>0.4266067234616386</v>
       </c>
       <c r="G24">
-        <v>0.0007896317808977296</v>
+        <v>0.2896627278747985</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.005380458835970492</v>
       </c>
       <c r="I24">
-        <v>1.961681556434186</v>
+        <v>0.004516584569896231</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2248576236389397</v>
       </c>
       <c r="K24">
-        <v>3.060044350944338</v>
+        <v>0.2330856059260773</v>
       </c>
       <c r="L24">
-        <v>0.6684961679192014</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2.682736272003893</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.093866194198654</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.035612090730979</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5729534607596634</v>
+        <v>0.3088192196920261</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1016198503137176</v>
+        <v>0.08336030172275599</v>
       </c>
       <c r="E25">
-        <v>0.05926862132037414</v>
+        <v>0.3876441611677208</v>
       </c>
       <c r="F25">
-        <v>3.314456703343609</v>
+        <v>0.3753758596734826</v>
       </c>
       <c r="G25">
-        <v>0.0008054023973781323</v>
+        <v>0.2565134505969482</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.002505789322675867</v>
       </c>
       <c r="I25">
-        <v>1.758378359507589</v>
+        <v>0.006311288792915093</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2173395063603607</v>
       </c>
       <c r="K25">
-        <v>2.456585493645662</v>
+        <v>0.2522794517083726</v>
       </c>
       <c r="L25">
-        <v>0.5441514476180487</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2.246678854809801</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.8986767664569726</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.9490861107710629</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2656639537415941</v>
+        <v>0.2823785562929544</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.07059348418113132</v>
+        <v>0.0698781864974336</v>
       </c>
       <c r="E2">
-        <v>0.3374464605295913</v>
+        <v>0.3388052726342181</v>
       </c>
       <c r="F2">
-        <v>0.3426480507212304</v>
+        <v>0.3482554079254498</v>
       </c>
       <c r="G2">
-        <v>0.236678547796437</v>
+        <v>0.2253753927218938</v>
       </c>
       <c r="H2">
-        <v>0.001027656667648369</v>
+        <v>0.001093702776564065</v>
       </c>
       <c r="I2">
-        <v>0.007224565600095545</v>
+        <v>0.004150263780700492</v>
       </c>
       <c r="J2">
-        <v>0.2144194520281033</v>
+        <v>0.2594957897884171</v>
       </c>
       <c r="K2">
-        <v>0.2676230283705467</v>
+        <v>0.2381050170916525</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1107802605859083</v>
       </c>
       <c r="M2">
-        <v>1.905428377788894</v>
+        <v>0.07223914352426286</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7515870209258324</v>
+        <v>1.845318899804624</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.9005227083696496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.7453358835617223</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.9189019756802139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2311657323408411</v>
+        <v>0.2501986905854068</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06222777261878321</v>
+        <v>0.0613427731157401</v>
       </c>
       <c r="E3">
-        <v>0.3022758993847248</v>
+        <v>0.3043095719781874</v>
       </c>
       <c r="F3">
-        <v>0.3198245840958478</v>
+        <v>0.3260173160275457</v>
       </c>
       <c r="G3">
-        <v>0.2224833006114864</v>
+        <v>0.2114258817838532</v>
       </c>
       <c r="H3">
-        <v>0.0003723620125819505</v>
+        <v>0.0004217105733108628</v>
       </c>
       <c r="I3">
-        <v>0.00849571709461916</v>
+        <v>0.004913984978850205</v>
       </c>
       <c r="J3">
-        <v>0.2121546417478086</v>
+        <v>0.256029399048316</v>
       </c>
       <c r="K3">
-        <v>0.2786852335001231</v>
+        <v>0.2473508362683559</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1145220633682014</v>
       </c>
       <c r="M3">
-        <v>1.687191059742759</v>
+        <v>0.07720334441610799</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6545028602775034</v>
+        <v>1.621787925028741</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.8654021950674462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.6472559851262858</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.885278859402419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.209585072739074</v>
+        <v>0.2299257342903189</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05709614815646802</v>
+        <v>0.05611378992751526</v>
       </c>
       <c r="E4">
-        <v>0.2805786773438754</v>
+        <v>0.2830063883304561</v>
       </c>
       <c r="F4">
-        <v>0.3062400175145186</v>
+        <v>0.3127350020433113</v>
       </c>
       <c r="G4">
-        <v>0.2141176418807831</v>
+        <v>0.2032408161616317</v>
       </c>
       <c r="H4">
-        <v>0.0001249848186239966</v>
+        <v>0.0001577817269562409</v>
       </c>
       <c r="I4">
-        <v>0.009391092609965401</v>
+        <v>0.005474095746968999</v>
       </c>
       <c r="J4">
-        <v>0.2110127780603221</v>
+        <v>0.2540119819584064</v>
       </c>
       <c r="K4">
-        <v>0.2857859354655568</v>
+        <v>0.2533087755214156</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1172423134566678</v>
       </c>
       <c r="M4">
-        <v>1.553737315316482</v>
+        <v>0.08054118284798495</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5950486506058965</v>
+        <v>1.485379082718993</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.8450940118652568</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.5872340770423676</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.8657097953367696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1998577735100753</v>
+        <v>0.2207630281365738</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05505617109338345</v>
+        <v>0.05402957134072039</v>
       </c>
       <c r="E5">
-        <v>0.2715205606444897</v>
+        <v>0.2741235213394262</v>
       </c>
       <c r="F5">
-        <v>0.3004900038154545</v>
+        <v>0.3071261837420707</v>
       </c>
       <c r="G5">
-        <v>0.2104863871530966</v>
+        <v>0.1997225508550713</v>
       </c>
       <c r="H5">
-        <v>6.081095709919992E-05</v>
+        <v>8.535378954821482E-05</v>
       </c>
       <c r="I5">
-        <v>0.009869693120077461</v>
+        <v>0.005819103798559766</v>
       </c>
       <c r="J5">
-        <v>0.2104424799600508</v>
+        <v>0.2530631155855474</v>
       </c>
       <c r="K5">
-        <v>0.2887193406668693</v>
+        <v>0.2557336998879847</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1183420493043084</v>
       </c>
       <c r="M5">
-        <v>1.501664257045519</v>
+        <v>0.08203243886109757</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5712656914431804</v>
+        <v>1.431898573231962</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.8361256686532812</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.5631823656958659</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.8570948990873148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1972168655041173</v>
+        <v>0.2182893570325319</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05477930496022765</v>
+        <v>0.05373772164060142</v>
       </c>
       <c r="E6">
-        <v>0.269784409029441</v>
+        <v>0.2724403643639306</v>
       </c>
       <c r="F6">
-        <v>0.2991551986723806</v>
+        <v>0.3058533682259963</v>
       </c>
       <c r="G6">
-        <v>0.2095160078708673</v>
+        <v>0.1988118778120196</v>
       </c>
       <c r="H6">
-        <v>5.227300905086274E-05</v>
+        <v>7.534733120539983E-05</v>
       </c>
       <c r="I6">
-        <v>0.01006285348446312</v>
+        <v>0.006002049297844536</v>
       </c>
       <c r="J6">
-        <v>0.210149593045557</v>
+        <v>0.2527195810054934</v>
       </c>
       <c r="K6">
-        <v>0.2891716679738647</v>
+        <v>0.2560567547678594</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1183938764027044</v>
       </c>
       <c r="M6">
-        <v>1.49570842900917</v>
+        <v>0.08235607373605625</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.5678236263893979</v>
+        <v>1.425371221213453</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.8334426351276818</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.5596364957994311</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.8545864542820709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2066565236885083</v>
+        <v>0.2275404170351436</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0572380323121422</v>
+        <v>0.05636847521930122</v>
       </c>
       <c r="E7">
-        <v>0.2798270504905176</v>
+        <v>0.2823579696050729</v>
       </c>
       <c r="F7">
-        <v>0.3051091337109995</v>
+        <v>0.3109387258661371</v>
       </c>
       <c r="G7">
-        <v>0.213052980618329</v>
+        <v>0.2045808789190531</v>
       </c>
       <c r="H7">
-        <v>0.0001238463580037763</v>
+        <v>0.0001558881097769582</v>
       </c>
       <c r="I7">
-        <v>0.009687266760851188</v>
+        <v>0.005802041145100745</v>
       </c>
       <c r="J7">
-        <v>0.2104555272817734</v>
+        <v>0.2498671674814261</v>
       </c>
       <c r="K7">
-        <v>0.2857253056891143</v>
+        <v>0.2530943327963109</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1168661075371489</v>
       </c>
       <c r="M7">
-        <v>1.560386687603312</v>
+        <v>0.08075832398123239</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5961111137098882</v>
+        <v>1.490166134482706</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.8416695844465067</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.5879702103355626</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.8602249121852026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2501138812755528</v>
+        <v>0.2690403902378335</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06793411048482767</v>
+        <v>0.06758489985831062</v>
       </c>
       <c r="E8">
-        <v>0.3245043358627555</v>
+        <v>0.3263115655740023</v>
       </c>
       <c r="F8">
-        <v>0.3332987801017495</v>
+        <v>0.3366893853275528</v>
       </c>
       <c r="G8">
-        <v>0.2303716276273349</v>
+        <v>0.2269872247668587</v>
       </c>
       <c r="H8">
-        <v>0.0007678300677991245</v>
+        <v>0.0008250158544396147</v>
       </c>
       <c r="I8">
-        <v>0.007989165082381788</v>
+        <v>0.004791124952337356</v>
       </c>
       <c r="J8">
-        <v>0.2128664819757446</v>
+        <v>0.2458236399581537</v>
       </c>
       <c r="K8">
-        <v>0.2712904752857535</v>
+        <v>0.240970081288002</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1115737812732875</v>
       </c>
       <c r="M8">
-        <v>1.839893051686659</v>
+        <v>0.07408954535439527</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.7199216821160803</v>
+        <v>1.773624003197654</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.88380458862963</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.7125645816814981</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.8952623511489861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.337138455754797</v>
+        <v>0.3497284362094035</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08866595282160006</v>
+        <v>0.08893713354012789</v>
       </c>
       <c r="E9">
-        <v>0.4125479863718695</v>
+        <v>0.4125256778497288</v>
       </c>
       <c r="F9">
-        <v>0.3941652574048291</v>
+        <v>0.394921338475875</v>
       </c>
       <c r="G9">
-        <v>0.2691910460058722</v>
+        <v>0.2674573062384695</v>
       </c>
       <c r="H9">
-        <v>0.003368432338178295</v>
+        <v>0.003422565968856817</v>
       </c>
       <c r="I9">
-        <v>0.005165208041002067</v>
+        <v>0.003056958772570617</v>
       </c>
       <c r="J9">
-        <v>0.2206553367046951</v>
+        <v>0.2524814703354323</v>
       </c>
       <c r="K9">
-        <v>0.2456094871652503</v>
+        <v>0.2198479306987298</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1051210318258433</v>
       </c>
       <c r="M9">
-        <v>2.3797438735848</v>
+        <v>0.06305076647115637</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9617689652161232</v>
+        <v>2.328408061502557</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.9830788207114978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.9571407392288975</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.9872128937674916</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4003443366820392</v>
+        <v>0.4110325157156183</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1052159094303988</v>
+        <v>0.1067295146312404</v>
       </c>
       <c r="E10">
-        <v>0.4462704438390901</v>
+        <v>0.4452809174115302</v>
       </c>
       <c r="F10">
-        <v>0.4347445076182908</v>
+        <v>0.4292337334502605</v>
       </c>
       <c r="G10">
-        <v>0.2934008301765516</v>
+        <v>0.3073698778834029</v>
       </c>
       <c r="H10">
-        <v>0.00613135670919851</v>
+        <v>0.006126552035115029</v>
       </c>
       <c r="I10">
-        <v>0.00389179010782037</v>
+        <v>0.00246669451582715</v>
       </c>
       <c r="J10">
-        <v>0.2244888531625975</v>
+        <v>0.2357594162502181</v>
       </c>
       <c r="K10">
-        <v>0.2285263036153369</v>
+        <v>0.206028084300506</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1026595373949046</v>
       </c>
       <c r="M10">
-        <v>2.79499156142677</v>
+        <v>0.0563008643227676</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.107829456465808</v>
+        <v>2.746829258667162</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.042883632898679</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.103789449682154</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.028488297346655</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4492942787169909</v>
+        <v>0.4739394363444234</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1236440165551187</v>
+        <v>0.1266967796302652</v>
       </c>
       <c r="E11">
-        <v>0.2433081886649475</v>
+        <v>0.2432619428761598</v>
       </c>
       <c r="F11">
-        <v>0.398216084232871</v>
+        <v>0.3865804483103048</v>
       </c>
       <c r="G11">
-        <v>0.2525666071091948</v>
+        <v>0.298059377909027</v>
       </c>
       <c r="H11">
-        <v>0.02380944932819773</v>
+        <v>0.02374949626170064</v>
       </c>
       <c r="I11">
-        <v>0.004046605823337934</v>
+        <v>0.002916702012821126</v>
       </c>
       <c r="J11">
-        <v>0.1998667260168929</v>
+        <v>0.1811013820960099</v>
       </c>
       <c r="K11">
-        <v>0.2258227059451468</v>
+        <v>0.2045034740465752</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1046749131694256</v>
       </c>
       <c r="M11">
-        <v>3.093956777167421</v>
+        <v>0.05406648463751207</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.8995158976780075</v>
+        <v>3.008296495912987</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.9049381465865736</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.8901698275277781</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.8735496247154657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4835252844831928</v>
+        <v>0.5197482152177884</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1361245435819143</v>
+        <v>0.1397574735894977</v>
       </c>
       <c r="E12">
-        <v>0.1280277768009519</v>
+        <v>0.1275970302034395</v>
       </c>
       <c r="F12">
-        <v>0.3613644877074904</v>
+        <v>0.3487146694295973</v>
       </c>
       <c r="G12">
-        <v>0.2166516479018412</v>
+        <v>0.2745617877890396</v>
       </c>
       <c r="H12">
-        <v>0.06167150037026659</v>
+        <v>0.06159451907716829</v>
       </c>
       <c r="I12">
-        <v>0.003928230534868682</v>
+        <v>0.002853027230158567</v>
       </c>
       <c r="J12">
-        <v>0.1798932873330301</v>
+        <v>0.1552567908822624</v>
       </c>
       <c r="K12">
-        <v>0.2307438936287038</v>
+        <v>0.2087035671490405</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1079276834695673</v>
       </c>
       <c r="M12">
-        <v>3.251102778294722</v>
+        <v>0.05435777915430773</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.7120315153935337</v>
+        <v>3.136031767541454</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.7870394571188797</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6999266304266456</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.7540664630591323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5036433731968657</v>
+        <v>0.5496034724790206</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1448811462234829</v>
+        <v>0.1477780018844186</v>
       </c>
       <c r="E13">
-        <v>0.07166861543491798</v>
+        <v>0.06995838685534395</v>
       </c>
       <c r="F13">
-        <v>0.3204093530981709</v>
+        <v>0.3120065990633094</v>
       </c>
       <c r="G13">
-        <v>0.1807833230001137</v>
+        <v>0.2328089760366367</v>
       </c>
       <c r="H13">
-        <v>0.1165809386948382</v>
+        <v>0.116514274563599</v>
       </c>
       <c r="I13">
-        <v>0.003988783366308368</v>
+        <v>0.002855786381516623</v>
       </c>
       <c r="J13">
-        <v>0.1614098887485511</v>
+        <v>0.1470220595464937</v>
       </c>
       <c r="K13">
-        <v>0.2413090914175893</v>
+        <v>0.2163069241116311</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1112258512187925</v>
       </c>
       <c r="M13">
-        <v>3.3183260599032</v>
+        <v>0.05660713240245663</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5329718564068244</v>
+        <v>3.180035206052594</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.6722744805975083</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5198636195217929</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.6524137017817537</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5103665610554629</v>
+        <v>0.5623925054653398</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1493964212370571</v>
+        <v>0.1511299540082689</v>
       </c>
       <c r="E14">
-        <v>0.06680655398584712</v>
+        <v>0.06373683355582216</v>
       </c>
       <c r="F14">
-        <v>0.289996053576111</v>
+        <v>0.2864972027395112</v>
       </c>
       <c r="G14">
-        <v>0.1559481518399437</v>
+        <v>0.197221918810861</v>
       </c>
       <c r="H14">
-        <v>0.1653664536525241</v>
+        <v>0.1653156178099238</v>
       </c>
       <c r="I14">
-        <v>0.004200454223116878</v>
+        <v>0.002989688343709496</v>
       </c>
       <c r="J14">
-        <v>0.1492133982050206</v>
+        <v>0.1470557110496529</v>
       </c>
       <c r="K14">
-        <v>0.2517872790367299</v>
+        <v>0.2232418991005716</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1134179481441517</v>
       </c>
       <c r="M14">
-        <v>3.32706083198849</v>
+        <v>0.05926371631595551</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4157146415299167</v>
+        <v>3.17494296909976</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.5940318052827536</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4026732502678598</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.5881459265813049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5074138293976489</v>
+        <v>0.5605228782903851</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1496737119641836</v>
+        <v>0.1508504116460614</v>
       </c>
       <c r="E15">
-        <v>0.07009084715365077</v>
+        <v>0.06666539907756341</v>
       </c>
       <c r="F15">
-        <v>0.2813064866040875</v>
+        <v>0.2798714723535554</v>
       </c>
       <c r="G15">
-        <v>0.1493896785392934</v>
+        <v>0.1854371292792436</v>
       </c>
       <c r="H15">
-        <v>0.177671844246774</v>
+        <v>0.1776292117050673</v>
       </c>
       <c r="I15">
-        <v>0.004421682210443478</v>
+        <v>0.003185476321292846</v>
       </c>
       <c r="J15">
-        <v>0.146313924107055</v>
+        <v>0.1494616833183713</v>
       </c>
       <c r="K15">
-        <v>0.255413486619279</v>
+        <v>0.2254999854329593</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1138306782002658</v>
       </c>
       <c r="M15">
-        <v>3.312558830308205</v>
+        <v>0.06034792544316048</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.3868222843560218</v>
+        <v>3.158047863514696</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.574024230583575</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.3739487552192173</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.573766542231823</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4735340285149618</v>
+        <v>0.5221670868409376</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1405200480288045</v>
+        <v>0.139639206536657</v>
       </c>
       <c r="E16">
-        <v>0.06856918459156347</v>
+        <v>0.06562533088212152</v>
       </c>
       <c r="F16">
-        <v>0.2717094644974907</v>
+        <v>0.2775228118706607</v>
       </c>
       <c r="G16">
-        <v>0.1458282689769206</v>
+        <v>0.1601266786924</v>
       </c>
       <c r="H16">
-        <v>0.1640512254411846</v>
+        <v>0.164047320305869</v>
       </c>
       <c r="I16">
-        <v>0.005071483014173594</v>
+        <v>0.003592138656594912</v>
       </c>
       <c r="J16">
-        <v>0.1480036391708737</v>
+        <v>0.1735529245626068</v>
       </c>
       <c r="K16">
-        <v>0.2593964078386151</v>
+        <v>0.227042689759779</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1114085606907267</v>
       </c>
       <c r="M16">
-        <v>3.121008601351207</v>
+        <v>0.06300339284138445</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.366914259698234</v>
+        <v>2.979058908854057</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.5698220272475538</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.3551374592509688</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.5888896118228359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4439480635500246</v>
+        <v>0.4865846236340872</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1311264020313985</v>
+        <v>0.1296529424627835</v>
       </c>
       <c r="E17">
-        <v>0.06426116001864735</v>
+        <v>0.06242934843782288</v>
       </c>
       <c r="F17">
-        <v>0.280411888097845</v>
+        <v>0.2885675050908318</v>
       </c>
       <c r="G17">
-        <v>0.1560898254193077</v>
+        <v>0.1611897651926526</v>
       </c>
       <c r="H17">
-        <v>0.125870406936528</v>
+        <v>0.1258836161095473</v>
       </c>
       <c r="I17">
-        <v>0.005496339272489159</v>
+        <v>0.00386946417138212</v>
       </c>
       <c r="J17">
-        <v>0.1557374412371928</v>
+        <v>0.1918264259050417</v>
       </c>
       <c r="K17">
-        <v>0.2568330482963592</v>
+        <v>0.2251332705007076</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1089854791440921</v>
       </c>
       <c r="M17">
-        <v>2.970331125514463</v>
+        <v>0.06357269694771084</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4111048700286872</v>
+        <v>2.843589502943047</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.6076529641647568</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.3999553766645434</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.6331807063321548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4179616575423353</v>
+        <v>0.451896035578045</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1205482918094418</v>
+        <v>0.1192576818768458</v>
       </c>
       <c r="E18">
-        <v>0.08698938695228087</v>
+        <v>0.08651382319359691</v>
       </c>
       <c r="F18">
-        <v>0.3071314614265077</v>
+        <v>0.3150222112587144</v>
       </c>
       <c r="G18">
-        <v>0.1811648787620967</v>
+        <v>0.1813964595617108</v>
       </c>
       <c r="H18">
-        <v>0.07313989321041703</v>
+        <v>0.07316352055364916</v>
       </c>
       <c r="I18">
-        <v>0.005428772116072622</v>
+        <v>0.003687730289619218</v>
       </c>
       <c r="J18">
-        <v>0.1703369827198102</v>
+        <v>0.2108298977359055</v>
       </c>
       <c r="K18">
-        <v>0.24933223218056</v>
+        <v>0.220373752751188</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1064054148642928</v>
       </c>
       <c r="M18">
-        <v>2.83213200880212</v>
+        <v>0.06242179518188973</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.5257414561070419</v>
+        <v>2.727187212609209</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.6913182616277709</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5156216892114855</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.7164554024320466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3915814499780055</v>
+        <v>0.4158582206727885</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1105271798278125</v>
+        <v>0.109761779333553</v>
       </c>
       <c r="E19">
-        <v>0.1744730291802092</v>
+        <v>0.1747665561917096</v>
       </c>
       <c r="F19">
-        <v>0.3459425712292656</v>
+        <v>0.352014253459906</v>
       </c>
       <c r="G19">
-        <v>0.2168394610218201</v>
+        <v>0.2142676361190965</v>
       </c>
       <c r="H19">
-        <v>0.02863294061648958</v>
+        <v>0.0286648229352835</v>
       </c>
       <c r="I19">
-        <v>0.005537962043754341</v>
+        <v>0.003827592345733599</v>
       </c>
       <c r="J19">
-        <v>0.1893900254471035</v>
+        <v>0.2305695545614839</v>
       </c>
       <c r="K19">
-        <v>0.2423530425402127</v>
+        <v>0.2161041510610335</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1046735260587148</v>
       </c>
       <c r="M19">
-        <v>2.731620043061696</v>
+        <v>0.06094433912820918</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.7083605589693533</v>
+        <v>2.650330450971978</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.8068330219849287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.7000179860835516</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.8270763394771166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.375072695783274</v>
+        <v>0.3861041100734894</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1014575973090217</v>
+        <v>0.1020629044374743</v>
       </c>
       <c r="E20">
-        <v>0.434213223229726</v>
+        <v>0.4335587653767234</v>
       </c>
       <c r="F20">
-        <v>0.4204154556933517</v>
+        <v>0.4197477821953655</v>
       </c>
       <c r="G20">
-        <v>0.283545366766063</v>
+        <v>0.2851353039520461</v>
       </c>
       <c r="H20">
-        <v>0.005312329560455353</v>
+        <v>0.005336200540653202</v>
       </c>
       <c r="I20">
-        <v>0.005059063610042713</v>
+        <v>0.003597792191396998</v>
       </c>
       <c r="J20">
-        <v>0.2216075733158007</v>
+        <v>0.2503517877378556</v>
       </c>
       <c r="K20">
-        <v>0.2331193221387329</v>
+        <v>0.2097058107676339</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1031774758555528</v>
       </c>
       <c r="M20">
-        <v>2.709893836053112</v>
+        <v>0.05806023993941167</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.072391696926495</v>
+        <v>2.661377872762046</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.015842564929841</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.068269346102213</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.016061508920444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4204216321711698</v>
+        <v>0.4339983368303706</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1122890989502423</v>
+        <v>0.1167335485881011</v>
       </c>
       <c r="E21">
-        <v>0.5074521248733461</v>
+        <v>0.5065225876567396</v>
       </c>
       <c r="F21">
-        <v>0.4630593990215885</v>
+        <v>0.4419626356442237</v>
       </c>
       <c r="G21">
-        <v>0.3130344613592655</v>
+        <v>0.3741723788428573</v>
       </c>
       <c r="H21">
-        <v>0.007983823042862465</v>
+        <v>0.007885581120101959</v>
       </c>
       <c r="I21">
-        <v>0.004073013633633771</v>
+        <v>0.003091521075774928</v>
       </c>
       <c r="J21">
-        <v>0.2301830419297914</v>
+        <v>0.1879313186122147</v>
       </c>
       <c r="K21">
-        <v>0.220440877246399</v>
+        <v>0.1998902119694108</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1023788146030284</v>
       </c>
       <c r="M21">
-        <v>3.008749374253966</v>
+        <v>0.05313510462548776</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.236315225336384</v>
+        <v>2.950049190588601</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.096657022563761</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.230307636353473</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.035206626988014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4547490945605261</v>
+        <v>0.470799778023121</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1197542791993129</v>
+        <v>0.1270190751625506</v>
       </c>
       <c r="E22">
-        <v>0.5406896030460331</v>
+        <v>0.5397141334797766</v>
       </c>
       <c r="F22">
-        <v>0.489680172926235</v>
+        <v>0.4538854140550725</v>
       </c>
       <c r="G22">
-        <v>0.3310416123374011</v>
+        <v>0.4389968052423256</v>
       </c>
       <c r="H22">
-        <v>0.009885863252587839</v>
+        <v>0.009686843093536984</v>
       </c>
       <c r="I22">
-        <v>0.003226269767844236</v>
+        <v>0.002460705072532043</v>
       </c>
       <c r="J22">
-        <v>0.2352220105001379</v>
+        <v>0.1530337187531217</v>
       </c>
       <c r="K22">
-        <v>0.2124549421990602</v>
+        <v>0.1938562355503732</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1023722781399359</v>
       </c>
       <c r="M22">
-        <v>3.200700569547337</v>
+        <v>0.05011558314071229</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.324828106546619</v>
+        <v>3.133384429078461</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.145597458680498</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.3172161571283</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.039995424995709</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4398428211089254</v>
+        <v>0.4533448380566085</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.115559945514434</v>
+        <v>0.1209363945257564</v>
       </c>
       <c r="E23">
-        <v>0.5236956487596345</v>
+        <v>0.5225281564906581</v>
       </c>
       <c r="F23">
-        <v>0.4766217584748986</v>
+        <v>0.4505782035304904</v>
       </c>
       <c r="G23">
-        <v>0.322540960207192</v>
+        <v>0.397962738003443</v>
       </c>
       <c r="H23">
-        <v>0.008848945449419304</v>
+        <v>0.008713517757016898</v>
       </c>
       <c r="I23">
-        <v>0.003333573721110206</v>
+        <v>0.002399201395342665</v>
       </c>
       <c r="J23">
-        <v>0.2331192322650111</v>
+        <v>0.1769041551259107</v>
       </c>
       <c r="K23">
-        <v>0.2165825926287912</v>
+        <v>0.1968080947034823</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1021488794785537</v>
       </c>
       <c r="M23">
-        <v>3.089094146139843</v>
+        <v>0.05172356951788126</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.275862046891476</v>
+        <v>3.029998197491921</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.123058283120912</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.269767514159682</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.046702098567664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3772983592727428</v>
+        <v>0.3868660955791086</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1000484290168799</v>
+        <v>0.1007097528485872</v>
       </c>
       <c r="E24">
-        <v>0.458201070613363</v>
+        <v>0.4572803549444089</v>
       </c>
       <c r="F24">
-        <v>0.4266067234616386</v>
+        <v>0.4255692567196547</v>
       </c>
       <c r="G24">
-        <v>0.2896627278747985</v>
+        <v>0.2903595054760757</v>
       </c>
       <c r="H24">
-        <v>0.005380458835970492</v>
+        <v>0.005405927246057707</v>
       </c>
       <c r="I24">
-        <v>0.004516584569896231</v>
+        <v>0.002967626515225419</v>
       </c>
       <c r="J24">
-        <v>0.2248576236389397</v>
+        <v>0.253937017398151</v>
       </c>
       <c r="K24">
-        <v>0.2330856059260773</v>
+        <v>0.2096700907283129</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1031163146954777</v>
       </c>
       <c r="M24">
-        <v>2.682736272003893</v>
+        <v>0.05809637768194675</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.093866194198654</v>
+        <v>2.638222242709105</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.035612090730979</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.090440071726469</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.034654635925307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3088192196920261</v>
+        <v>0.3232576047313387</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.08336030172275599</v>
+        <v>0.08322367098966055</v>
       </c>
       <c r="E25">
-        <v>0.3876441611677208</v>
+        <v>0.3882061288430521</v>
       </c>
       <c r="F25">
-        <v>0.3753758596734826</v>
+        <v>0.3782161741922394</v>
       </c>
       <c r="G25">
-        <v>0.2565134505969482</v>
+        <v>0.2511503624417415</v>
       </c>
       <c r="H25">
-        <v>0.002505789322675867</v>
+        <v>0.002570171544045263</v>
       </c>
       <c r="I25">
-        <v>0.006311288792915093</v>
+        <v>0.003997396581517876</v>
       </c>
       <c r="J25">
-        <v>0.2173395063603607</v>
+        <v>0.2546814938793105</v>
       </c>
       <c r="K25">
-        <v>0.2522794517083726</v>
+        <v>0.2252647483179677</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1063650700386094</v>
       </c>
       <c r="M25">
-        <v>2.246678854809801</v>
+        <v>0.06588327317715148</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8986767664569726</v>
+        <v>2.190804519560174</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.9490861107710629</v>
+        <v>0.8932201737139138</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.9594135267032016</v>
       </c>
     </row>
   </sheetData>
